--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
   <si>
     <t>GTH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,191 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
-        <v>43465</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43373</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43555</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>32000</v>
+        <v>17000</v>
       </c>
       <c r="E8" s="3">
-        <v>10700</v>
+        <v>15500</v>
       </c>
       <c r="F8" s="3">
-        <v>22000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>33500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>17600</v>
+        <v>6400</v>
       </c>
       <c r="E9" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="F9" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14400</v>
+        <v>10600</v>
       </c>
       <c r="E10" s="3">
-        <v>4600</v>
+        <v>9800</v>
       </c>
       <c r="F10" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>6400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,37 +861,53 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8600</v>
+        <v>5900</v>
       </c>
       <c r="E12" s="3">
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="F12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,37 +935,61 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +1017,20 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,66 +1039,94 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64300</v>
+        <v>26000</v>
       </c>
       <c r="E17" s="3">
-        <v>22800</v>
+        <v>23600</v>
       </c>
       <c r="F17" s="3">
-        <v>43800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>21900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>28600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>21000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32300</v>
+        <v>-9000</v>
       </c>
       <c r="E18" s="3">
-        <v>-12000</v>
+        <v>-8100</v>
       </c>
       <c r="F18" s="3">
-        <v>-21800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-10200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-10800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,37 +1138,53 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45800</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-6000</v>
+        <v>-422800</v>
       </c>
       <c r="F20" s="3">
-        <v>-27700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-7300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-9200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,26 +1212,38 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,37 +1253,61 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-78600</v>
+        <v>-7300</v>
       </c>
       <c r="E23" s="3">
-        <v>-18100</v>
+        <v>-430900</v>
       </c>
       <c r="F23" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-17600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-20000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1335,20 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,66 +1376,102 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-78600</v>
+        <v>-7300</v>
       </c>
       <c r="E26" s="3">
-        <v>-18100</v>
+        <v>-430900</v>
       </c>
       <c r="F26" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-17600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-20000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-78600</v>
+        <v>-7300</v>
       </c>
       <c r="E27" s="3">
-        <v>-18100</v>
+        <v>-430900</v>
       </c>
       <c r="F27" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-17600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-20000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1499,20 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1540,20 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1581,20 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,66 +1622,102 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45800</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>6000</v>
+        <v>422800</v>
       </c>
       <c r="F32" s="3">
-        <v>27700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-78600</v>
+        <v>-7300</v>
       </c>
       <c r="E33" s="3">
-        <v>-18100</v>
+        <v>-430900</v>
       </c>
       <c r="F33" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-17600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-20000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,71 +1745,107 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-78600</v>
+        <v>-7300</v>
       </c>
       <c r="E35" s="3">
-        <v>-18100</v>
+        <v>-430900</v>
       </c>
       <c r="F35" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-17600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-20000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
-        <v>43465</v>
-      </c>
-      <c r="F38" s="2">
-        <v>43373</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="I38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43555</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1857,12 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,22 +1874,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>248700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>280400</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>21300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1558,51 +1907,75 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
+        <v>7300</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>18600</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12400</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>24800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>17500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>16000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1616,22 +1989,34 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2600</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>2700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1645,22 +2030,34 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>6000</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>6600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1674,22 +2071,34 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>318700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>314000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>65300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1703,8 +2112,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,22 +2153,34 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18400</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>19900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>19200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1761,22 +2194,34 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1790,8 +2235,20 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2276,20 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,22 +2317,34 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>1900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1877,8 +2358,20 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,22 +2399,34 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42600</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>341800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>333600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="G54" s="3">
+        <v>87200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1935,8 +2440,20 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2465,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,22 +2482,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15500</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>44100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>21200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>24300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1990,22 +2515,34 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>5300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2019,22 +2556,34 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>2800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2048,22 +2597,34 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27500</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>55500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32300</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>32400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2077,22 +2638,34 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>244400</v>
+        <v>7000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>325400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2106,8 +2679,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2135,8 +2720,20 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2761,20 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2802,20 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,22 +2843,34 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>271900</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>62500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>36100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="G66" s="3">
+        <v>357800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2884,20 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2909,12 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2942,20 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2983,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +3024,20 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,22 +3065,34 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-228700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>279300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>297900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>-270000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +3106,20 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +3147,20 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +3188,20 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,22 +3229,34 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-229300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>279300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>297500</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>-270500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +3270,20 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,71 +3311,107 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
-        <v>43465</v>
-      </c>
-      <c r="F80" s="2">
-        <v>43373</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="I80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43555</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-78600</v>
+        <v>-7300</v>
       </c>
       <c r="E81" s="3">
-        <v>-18100</v>
+        <v>-430900</v>
       </c>
       <c r="F81" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-17600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-20000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +3423,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +3456,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3497,20 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3538,20 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3579,20 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3620,20 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3661,61 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18800</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-5200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,37 +3727,53 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3801,20 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,37 +3842,61 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>15500</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3908,12 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3941,20 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3982,20 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +4023,20 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,37 +4064,61 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3134,48 +4131,72 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="E8" s="3">
         <v>15500</v>
@@ -743,13 +743,13 @@
         <v>15700</v>
       </c>
       <c r="H8" s="3">
-        <v>33500</v>
+        <v>33700</v>
       </c>
       <c r="I8" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="J8" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E9" s="3">
         <v>5700</v>
@@ -825,7 +825,7 @@
         <v>7000</v>
       </c>
       <c r="H10" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I10" s="3">
         <v>5300</v>
@@ -874,7 +874,7 @@
         <v>5900</v>
       </c>
       <c r="E12" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F12" s="3">
         <v>4200</v>
@@ -883,7 +883,7 @@
         <v>4900</v>
       </c>
       <c r="H12" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="I12" s="3">
         <v>2900</v>
@@ -1049,25 +1049,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="E17" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="F17" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="G17" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="H17" s="3">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="I17" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="J17" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,19 +1096,19 @@
         <v>-8100</v>
       </c>
       <c r="F18" s="3">
-        <v>-10200</v>
+        <v>-10300</v>
       </c>
       <c r="G18" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="H18" s="3">
-        <v>-33800</v>
+        <v>-33900</v>
       </c>
       <c r="I18" s="3">
         <v>-10200</v>
       </c>
       <c r="J18" s="3">
-        <v>-10800</v>
+        <v>-10900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1151,16 +1151,16 @@
         <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-422800</v>
+        <v>-424600</v>
       </c>
       <c r="F20" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="G20" s="3">
         <v>-6400</v>
       </c>
       <c r="H20" s="3">
-        <v>-48000</v>
+        <v>-48200</v>
       </c>
       <c r="I20" s="3">
         <v>-10500</v>
@@ -1242,7 +1242,7 @@
         <v>1200</v>
       </c>
       <c r="H22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1274,22 +1274,22 @@
         <v>-7300</v>
       </c>
       <c r="E23" s="3">
-        <v>-430900</v>
+        <v>-432700</v>
       </c>
       <c r="F23" s="3">
         <v>-17600</v>
       </c>
       <c r="G23" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="H23" s="3">
-        <v>-82300</v>
+        <v>-82700</v>
       </c>
       <c r="I23" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="J23" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1397,22 +1397,22 @@
         <v>-7300</v>
       </c>
       <c r="E26" s="3">
-        <v>-430900</v>
+        <v>-432700</v>
       </c>
       <c r="F26" s="3">
         <v>-17600</v>
       </c>
       <c r="G26" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="H26" s="3">
-        <v>-82300</v>
+        <v>-82700</v>
       </c>
       <c r="I26" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="J26" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1438,22 +1438,22 @@
         <v>-7300</v>
       </c>
       <c r="E27" s="3">
-        <v>-430900</v>
+        <v>-432700</v>
       </c>
       <c r="F27" s="3">
         <v>-17600</v>
       </c>
       <c r="G27" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="H27" s="3">
-        <v>-82300</v>
+        <v>-82700</v>
       </c>
       <c r="I27" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="J27" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>422800</v>
+        <v>424600</v>
       </c>
       <c r="F32" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="G32" s="3">
         <v>6400</v>
       </c>
       <c r="H32" s="3">
-        <v>48000</v>
+        <v>48200</v>
       </c>
       <c r="I32" s="3">
         <v>10500</v>
@@ -1684,22 +1684,22 @@
         <v>-7300</v>
       </c>
       <c r="E33" s="3">
-        <v>-430900</v>
+        <v>-432700</v>
       </c>
       <c r="F33" s="3">
         <v>-17600</v>
       </c>
       <c r="G33" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="H33" s="3">
-        <v>-82300</v>
+        <v>-82700</v>
       </c>
       <c r="I33" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="J33" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1766,22 +1766,22 @@
         <v>-7300</v>
       </c>
       <c r="E35" s="3">
-        <v>-430900</v>
+        <v>-432700</v>
       </c>
       <c r="F35" s="3">
         <v>-17600</v>
       </c>
       <c r="G35" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="H35" s="3">
-        <v>-82300</v>
+        <v>-82700</v>
       </c>
       <c r="I35" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="J35" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>248700</v>
+        <v>249800</v>
       </c>
       <c r="E41" s="3">
-        <v>280400</v>
+        <v>281700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G41" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1925,7 +1925,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35500</v>
+        <v>35700</v>
       </c>
       <c r="E42" s="3">
         <v>7300</v>
@@ -1934,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="E43" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -2051,13 +2051,13 @@
         <v>6200</v>
       </c>
       <c r="E45" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -2089,16 +2089,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>318700</v>
+        <v>320000</v>
       </c>
       <c r="E46" s="3">
-        <v>314000</v>
+        <v>315400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="3">
-        <v>65300</v>
+        <v>65600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2171,16 +2171,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E48" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G48" s="3">
-        <v>19200</v>
+        <v>38600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2221,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="3">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2417,16 +2417,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>341800</v>
+        <v>343300</v>
       </c>
       <c r="E54" s="3">
-        <v>333600</v>
+        <v>335100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G54" s="3">
-        <v>87200</v>
+        <v>87600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2492,16 +2492,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44100</v>
+        <v>44300</v>
       </c>
       <c r="E57" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G57" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2533,10 +2533,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E58" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2615,16 +2615,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55500</v>
+        <v>55700</v>
       </c>
       <c r="E60" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G60" s="3">
-        <v>32400</v>
+        <v>32500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>325400</v>
+        <v>326800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2861,16 +2861,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62500</v>
+        <v>62800</v>
       </c>
       <c r="E66" s="3">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="3">
-        <v>357800</v>
+        <v>359300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -3083,16 +3083,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>279300</v>
+        <v>280500</v>
       </c>
       <c r="E72" s="3">
-        <v>297900</v>
+        <v>299100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>-270000</v>
+        <v>-271100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3247,16 +3247,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>279300</v>
+        <v>280500</v>
       </c>
       <c r="E76" s="3">
-        <v>297500</v>
+        <v>298800</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="3">
-        <v>-270500</v>
+        <v>-271700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3378,22 +3378,22 @@
         <v>-7300</v>
       </c>
       <c r="E81" s="3">
-        <v>-430900</v>
+        <v>-432700</v>
       </c>
       <c r="F81" s="3">
         <v>-17600</v>
       </c>
       <c r="G81" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="H81" s="3">
-        <v>-82300</v>
+        <v>-82700</v>
       </c>
       <c r="I81" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="J81" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="92">
   <si>
     <t>GTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,38 +726,44 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17100</v>
+        <v>14400</v>
       </c>
       <c r="E8" s="3">
-        <v>15500</v>
+        <v>20900</v>
       </c>
       <c r="F8" s="3">
-        <v>11700</v>
+        <v>17500</v>
       </c>
       <c r="G8" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="H8" s="3">
-        <v>33700</v>
+        <v>12000</v>
       </c>
       <c r="I8" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K8" s="3">
         <v>11100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,38 +773,44 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="E9" s="3">
-        <v>5700</v>
+        <v>7800</v>
       </c>
       <c r="F9" s="3">
-        <v>5300</v>
+        <v>6600</v>
       </c>
       <c r="G9" s="3">
-        <v>8700</v>
+        <v>5900</v>
       </c>
       <c r="H9" s="3">
-        <v>18500</v>
+        <v>5400</v>
       </c>
       <c r="I9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K9" s="3">
         <v>5800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,38 +820,44 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10600</v>
+        <v>8500</v>
       </c>
       <c r="E10" s="3">
-        <v>9800</v>
+        <v>13100</v>
       </c>
       <c r="F10" s="3">
-        <v>6400</v>
+        <v>10900</v>
       </c>
       <c r="G10" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="H10" s="3">
-        <v>15200</v>
+        <v>6600</v>
       </c>
       <c r="I10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +890,40 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5900</v>
+        <v>7800</v>
       </c>
       <c r="E12" s="3">
-        <v>4600</v>
+        <v>8300</v>
       </c>
       <c r="F12" s="3">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H12" s="3">
-        <v>9100</v>
+        <v>4300</v>
       </c>
       <c r="I12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,28 +980,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
       <c r="G14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>300</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
@@ -976,8 +1015,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -988,8 +1027,14 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1094,40 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26200</v>
+        <v>31400</v>
       </c>
       <c r="E17" s="3">
-        <v>23700</v>
+        <v>34800</v>
       </c>
       <c r="F17" s="3">
-        <v>22000</v>
+        <v>26700</v>
       </c>
       <c r="G17" s="3">
-        <v>28700</v>
+        <v>24200</v>
       </c>
       <c r="H17" s="3">
-        <v>67600</v>
+        <v>22500</v>
       </c>
       <c r="I17" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K17" s="3">
         <v>21300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>21100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,38 +1137,44 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9000</v>
+        <v>-17000</v>
       </c>
       <c r="E18" s="3">
-        <v>-8100</v>
+        <v>-13900</v>
       </c>
       <c r="F18" s="3">
-        <v>-10300</v>
+        <v>-9200</v>
       </c>
       <c r="G18" s="3">
-        <v>-13000</v>
+        <v>-8300</v>
       </c>
       <c r="H18" s="3">
-        <v>-33900</v>
+        <v>-10500</v>
       </c>
       <c r="I18" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-10900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1184,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,38 +1207,40 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
-        <v>-424600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-7400</v>
-      </c>
       <c r="G20" s="3">
-        <v>-6400</v>
+        <v>-433600</v>
       </c>
       <c r="H20" s="3">
-        <v>-48200</v>
+        <v>-7500</v>
       </c>
       <c r="I20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-9200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1250,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,8 +1297,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,18 +1317,18 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,38 +1344,44 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7300</v>
+        <v>-17900</v>
       </c>
       <c r="E23" s="3">
-        <v>-432700</v>
+        <v>-11400</v>
       </c>
       <c r="F23" s="3">
-        <v>-17600</v>
+        <v>-7500</v>
       </c>
       <c r="G23" s="3">
-        <v>-20600</v>
+        <v>-441900</v>
       </c>
       <c r="H23" s="3">
-        <v>-82700</v>
+        <v>-18000</v>
       </c>
       <c r="I23" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-20700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-20100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1391,14 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1438,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1485,44 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7300</v>
+        <v>-17900</v>
       </c>
       <c r="E26" s="3">
-        <v>-432700</v>
+        <v>-11400</v>
       </c>
       <c r="F26" s="3">
-        <v>-17600</v>
+        <v>-7500</v>
       </c>
       <c r="G26" s="3">
-        <v>-20600</v>
+        <v>-441900</v>
       </c>
       <c r="H26" s="3">
-        <v>-82700</v>
+        <v>-18000</v>
       </c>
       <c r="I26" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-20100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1532,44 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7300</v>
+        <v>-17600</v>
       </c>
       <c r="E27" s="3">
-        <v>-432700</v>
+        <v>-11400</v>
       </c>
       <c r="F27" s="3">
-        <v>-17600</v>
+        <v>-7500</v>
       </c>
       <c r="G27" s="3">
-        <v>-20600</v>
+        <v>-441900</v>
       </c>
       <c r="H27" s="3">
-        <v>-82700</v>
+        <v>-18000</v>
       </c>
       <c r="I27" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-20700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-20100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1579,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,38 +1767,44 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
-        <v>424600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7400</v>
-      </c>
       <c r="G32" s="3">
-        <v>6400</v>
+        <v>433600</v>
       </c>
       <c r="H32" s="3">
-        <v>48200</v>
+        <v>7500</v>
       </c>
       <c r="I32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K32" s="3">
         <v>10500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>9200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,38 +1814,44 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7300</v>
+        <v>-17600</v>
       </c>
       <c r="E33" s="3">
-        <v>-432700</v>
+        <v>-11400</v>
       </c>
       <c r="F33" s="3">
-        <v>-17600</v>
+        <v>-7500</v>
       </c>
       <c r="G33" s="3">
-        <v>-20600</v>
+        <v>-441900</v>
       </c>
       <c r="H33" s="3">
-        <v>-82700</v>
+        <v>-18000</v>
       </c>
       <c r="I33" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-20700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1861,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1908,44 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7300</v>
+        <v>-17600</v>
       </c>
       <c r="E35" s="3">
-        <v>-432700</v>
+        <v>-11400</v>
       </c>
       <c r="F35" s="3">
-        <v>-17600</v>
+        <v>-7500</v>
       </c>
       <c r="G35" s="3">
-        <v>-20600</v>
+        <v>-441900</v>
       </c>
       <c r="H35" s="3">
-        <v>-82700</v>
+        <v>-18000</v>
       </c>
       <c r="I35" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-20700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1955,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +2007,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,28 +2049,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>249800</v>
+        <v>166800</v>
       </c>
       <c r="E41" s="3">
-        <v>281700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>214600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>255100</v>
       </c>
       <c r="G41" s="3">
-        <v>21400</v>
+        <v>287600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>21800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1919,37 +2092,43 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35700</v>
+        <v>49700</v>
       </c>
       <c r="E42" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>21900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>36400</v>
       </c>
       <c r="G42" s="3">
-        <v>18700</v>
+        <v>7400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>19100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1960,28 +2139,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24900</v>
+        <v>35000</v>
       </c>
       <c r="E43" s="3">
-        <v>17600</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>32500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>25400</v>
       </c>
       <c r="G43" s="3">
-        <v>16100</v>
+        <v>18000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>16400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2001,28 +2186,34 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="E44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2700</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>2800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2042,28 +2233,34 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6700</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>6800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2083,28 +2280,34 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>320000</v>
+        <v>261600</v>
       </c>
       <c r="E46" s="3">
-        <v>315400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>278600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>326800</v>
       </c>
       <c r="G46" s="3">
-        <v>65600</v>
+        <v>322100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>67000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2124,31 +2327,37 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>3100</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2165,28 +2374,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20000</v>
+        <v>20900</v>
       </c>
       <c r="E48" s="3">
-        <v>17200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>21300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>20400</v>
       </c>
       <c r="G48" s="3">
-        <v>38600</v>
+        <v>17600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>19700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2206,28 +2421,34 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="E49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1700</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2468,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,28 +2562,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>4100</v>
       </c>
       <c r="E52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1900</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>2000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,28 +2656,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>343300</v>
+        <v>293900</v>
       </c>
       <c r="E54" s="3">
-        <v>335100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>307300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>350500</v>
       </c>
       <c r="G54" s="3">
-        <v>87600</v>
+        <v>342200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>89500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,28 +2745,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44300</v>
+        <v>25400</v>
       </c>
       <c r="E57" s="3">
-        <v>21300</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>22700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45300</v>
       </c>
       <c r="G57" s="3">
-        <v>24400</v>
+        <v>21700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>24900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2527,28 +2788,34 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G58" s="3">
         <v>10500</v>
       </c>
-      <c r="E58" s="3">
-        <v>10300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5300</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>5400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2568,29 +2835,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
-        <v>900</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,28 +2882,34 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55700</v>
+        <v>35600</v>
       </c>
       <c r="E60" s="3">
-        <v>32400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>35700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>56900</v>
       </c>
       <c r="G60" s="3">
-        <v>32500</v>
+        <v>33100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>33200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2650,28 +2929,34 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E61" s="3">
-        <v>3900</v>
+        <v>7600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="G61" s="3">
-        <v>326800</v>
+        <v>4000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>333700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2691,31 +2976,37 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,28 +3164,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62800</v>
+        <v>45300</v>
       </c>
       <c r="E66" s="3">
-        <v>36300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>43300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>64100</v>
       </c>
       <c r="G66" s="3">
-        <v>359300</v>
+        <v>37100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>366900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,28 +3418,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>280500</v>
+        <v>-791600</v>
       </c>
       <c r="E72" s="3">
-        <v>299100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-774600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-752200</v>
       </c>
       <c r="G72" s="3">
-        <v>-271100</v>
+        <v>-733200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>-276900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,28 +3606,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>280500</v>
+        <v>248700</v>
       </c>
       <c r="E76" s="3">
-        <v>298800</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>264100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>286400</v>
       </c>
       <c r="G76" s="3">
-        <v>-271700</v>
+        <v>305100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>-277400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3700,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3752,44 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7300</v>
+        <v>-17600</v>
       </c>
       <c r="E81" s="3">
-        <v>-432700</v>
+        <v>-11400</v>
       </c>
       <c r="F81" s="3">
-        <v>-17600</v>
+        <v>-7500</v>
       </c>
       <c r="G81" s="3">
-        <v>-20600</v>
+        <v>-441900</v>
       </c>
       <c r="H81" s="3">
-        <v>-82700</v>
+        <v>-18000</v>
       </c>
       <c r="I81" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-20700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3799,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3822,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,8 +3865,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,8 +4100,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3699,11 +4132,11 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +4170,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3757,11 +4198,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +4213,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4307,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3880,11 +4339,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,8 +4561,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4102,11 +4593,11 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4608,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4143,11 +4640,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4158,8 +4655,14 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4184,11 +4687,11 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4197,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="E8" s="3">
-        <v>20900</v>
+        <v>20600</v>
       </c>
       <c r="F8" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="G8" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="H8" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="I8" s="3">
-        <v>16100</v>
+        <v>15800</v>
       </c>
       <c r="J8" s="3">
-        <v>34400</v>
+        <v>34000</v>
       </c>
       <c r="K8" s="3">
         <v>11100</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E9" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F9" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="G9" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="H9" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I9" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J9" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="K9" s="3">
         <v>5800</v>
@@ -832,25 +832,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E10" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="F10" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="G10" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="H10" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="I10" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J10" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="K10" s="3">
         <v>5300</v>
@@ -898,16 +898,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="E12" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="F12" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G12" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H12" s="3">
         <v>4300</v>
@@ -916,7 +916,7 @@
         <v>5000</v>
       </c>
       <c r="J12" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="K12" s="3">
         <v>2900</v>
@@ -1102,25 +1102,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31400</v>
+        <v>31000</v>
       </c>
       <c r="E17" s="3">
-        <v>34800</v>
+        <v>34300</v>
       </c>
       <c r="F17" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="G17" s="3">
-        <v>24200</v>
+        <v>23800</v>
       </c>
       <c r="H17" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="I17" s="3">
-        <v>29300</v>
+        <v>28900</v>
       </c>
       <c r="J17" s="3">
-        <v>69000</v>
+        <v>68200</v>
       </c>
       <c r="K17" s="3">
         <v>21300</v>
@@ -1149,25 +1149,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="E18" s="3">
-        <v>-13900</v>
+        <v>-13700</v>
       </c>
       <c r="F18" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="G18" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="H18" s="3">
-        <v>-10500</v>
+        <v>-10300</v>
       </c>
       <c r="I18" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="J18" s="3">
-        <v>-34600</v>
+        <v>-34200</v>
       </c>
       <c r="K18" s="3">
         <v>-10200</v>
@@ -1224,16 +1224,16 @@
         <v>1700</v>
       </c>
       <c r="G20" s="3">
-        <v>-433600</v>
+        <v>-427900</v>
       </c>
       <c r="H20" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="I20" s="3">
         <v>-6500</v>
       </c>
       <c r="J20" s="3">
-        <v>-49200</v>
+        <v>-48600</v>
       </c>
       <c r="K20" s="3">
         <v>-10500</v>
@@ -1324,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
         <v>600</v>
@@ -1356,25 +1356,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="E23" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F23" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G23" s="3">
-        <v>-441900</v>
+        <v>-436100</v>
       </c>
       <c r="H23" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I23" s="3">
-        <v>-21000</v>
+        <v>-20800</v>
       </c>
       <c r="J23" s="3">
-        <v>-84400</v>
+        <v>-83300</v>
       </c>
       <c r="K23" s="3">
         <v>-20700</v>
@@ -1497,25 +1497,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="E26" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F26" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G26" s="3">
-        <v>-441900</v>
+        <v>-436100</v>
       </c>
       <c r="H26" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I26" s="3">
-        <v>-21000</v>
+        <v>-20800</v>
       </c>
       <c r="J26" s="3">
-        <v>-84400</v>
+        <v>-83300</v>
       </c>
       <c r="K26" s="3">
         <v>-20700</v>
@@ -1544,25 +1544,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="E27" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F27" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G27" s="3">
-        <v>-441900</v>
+        <v>-436100</v>
       </c>
       <c r="H27" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I27" s="3">
-        <v>-21000</v>
+        <v>-20800</v>
       </c>
       <c r="J27" s="3">
-        <v>-84400</v>
+        <v>-83300</v>
       </c>
       <c r="K27" s="3">
         <v>-20700</v>
@@ -1788,16 +1788,16 @@
         <v>-1700</v>
       </c>
       <c r="G32" s="3">
-        <v>433600</v>
+        <v>427900</v>
       </c>
       <c r="H32" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I32" s="3">
         <v>6500</v>
       </c>
       <c r="J32" s="3">
-        <v>49200</v>
+        <v>48600</v>
       </c>
       <c r="K32" s="3">
         <v>10500</v>
@@ -1826,25 +1826,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="E33" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F33" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G33" s="3">
-        <v>-441900</v>
+        <v>-436100</v>
       </c>
       <c r="H33" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I33" s="3">
-        <v>-21000</v>
+        <v>-20800</v>
       </c>
       <c r="J33" s="3">
-        <v>-84400</v>
+        <v>-83300</v>
       </c>
       <c r="K33" s="3">
         <v>-20700</v>
@@ -1920,25 +1920,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="E35" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F35" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G35" s="3">
-        <v>-441900</v>
+        <v>-436100</v>
       </c>
       <c r="H35" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I35" s="3">
-        <v>-21000</v>
+        <v>-20800</v>
       </c>
       <c r="J35" s="3">
-        <v>-84400</v>
+        <v>-83300</v>
       </c>
       <c r="K35" s="3">
         <v>-20700</v>
@@ -2057,22 +2057,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>166800</v>
+        <v>164600</v>
       </c>
       <c r="E41" s="3">
-        <v>214600</v>
+        <v>211800</v>
       </c>
       <c r="F41" s="3">
-        <v>255100</v>
+        <v>251800</v>
       </c>
       <c r="G41" s="3">
-        <v>287600</v>
+        <v>283900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I41" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -2104,22 +2104,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49700</v>
+        <v>49100</v>
       </c>
       <c r="E42" s="3">
-        <v>21900</v>
+        <v>21600</v>
       </c>
       <c r="F42" s="3">
-        <v>36400</v>
+        <v>36000</v>
       </c>
       <c r="G42" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I42" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -2151,22 +2151,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35000</v>
+        <v>34500</v>
       </c>
       <c r="E43" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="F43" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="G43" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I43" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2198,13 +2198,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F44" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G44" s="3">
         <v>2800</v>
@@ -2245,22 +2245,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="3">
         <v>5700</v>
       </c>
       <c r="F45" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G45" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I45" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2292,22 +2292,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>261600</v>
+        <v>258200</v>
       </c>
       <c r="E46" s="3">
-        <v>278600</v>
+        <v>275000</v>
       </c>
       <c r="F46" s="3">
-        <v>326800</v>
+        <v>322600</v>
       </c>
       <c r="G46" s="3">
-        <v>322100</v>
+        <v>317900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I46" s="3">
-        <v>67000</v>
+        <v>66100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2339,10 +2339,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E47" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2386,22 +2386,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="E48" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="F48" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="G48" s="3">
-        <v>17600</v>
+        <v>17300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I48" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2448,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2574,13 +2574,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E52" s="3">
         <v>2400</v>
       </c>
       <c r="F52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G52" s="3">
         <v>1500</v>
@@ -2668,22 +2668,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>293900</v>
+        <v>290100</v>
       </c>
       <c r="E54" s="3">
-        <v>307300</v>
+        <v>303300</v>
       </c>
       <c r="F54" s="3">
-        <v>350500</v>
+        <v>346000</v>
       </c>
       <c r="G54" s="3">
-        <v>342200</v>
+        <v>337700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I54" s="3">
-        <v>89500</v>
+        <v>88300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2753,22 +2753,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="E57" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="F57" s="3">
-        <v>45300</v>
+        <v>44700</v>
       </c>
       <c r="G57" s="3">
-        <v>21700</v>
+        <v>21400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I57" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2800,16 +2800,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E58" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="F58" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="G58" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2847,13 +2847,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E59" s="3">
         <v>1300</v>
       </c>
       <c r="F59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
@@ -2894,22 +2894,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35600</v>
+        <v>35100</v>
       </c>
       <c r="E60" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="F60" s="3">
-        <v>56900</v>
+        <v>56200</v>
       </c>
       <c r="G60" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I60" s="3">
-        <v>33200</v>
+        <v>32800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2941,22 +2941,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F61" s="3">
         <v>7100</v>
       </c>
-      <c r="E61" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>7200</v>
-      </c>
       <c r="G61" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>333700</v>
+        <v>329400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3176,22 +3176,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45300</v>
+        <v>44700</v>
       </c>
       <c r="E66" s="3">
-        <v>43300</v>
+        <v>42700</v>
       </c>
       <c r="F66" s="3">
-        <v>64100</v>
+        <v>63300</v>
       </c>
       <c r="G66" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I66" s="3">
-        <v>366900</v>
+        <v>362100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3430,22 +3430,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-791600</v>
+        <v>-781300</v>
       </c>
       <c r="E72" s="3">
-        <v>-774600</v>
+        <v>-764500</v>
       </c>
       <c r="F72" s="3">
-        <v>-752200</v>
+        <v>-742400</v>
       </c>
       <c r="G72" s="3">
-        <v>-733200</v>
+        <v>-723600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I72" s="3">
-        <v>-276900</v>
+        <v>-273300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3618,22 +3618,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>248700</v>
+        <v>245400</v>
       </c>
       <c r="E76" s="3">
-        <v>264100</v>
+        <v>260600</v>
       </c>
       <c r="F76" s="3">
-        <v>286400</v>
+        <v>282700</v>
       </c>
       <c r="G76" s="3">
-        <v>305100</v>
+        <v>301100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I76" s="3">
-        <v>-277400</v>
+        <v>-273800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3764,25 +3764,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="E81" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F81" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G81" s="3">
-        <v>-441900</v>
+        <v>-436100</v>
       </c>
       <c r="H81" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I81" s="3">
-        <v>-21000</v>
+        <v>-20800</v>
       </c>
       <c r="J81" s="3">
-        <v>-84400</v>
+        <v>-83300</v>
       </c>
       <c r="K81" s="3">
         <v>-20700</v>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
   <si>
     <t>GTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,66 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,44 +734,50 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14200</v>
+        <v>23900</v>
       </c>
       <c r="E8" s="3">
-        <v>20600</v>
+        <v>22000</v>
       </c>
       <c r="F8" s="3">
-        <v>17200</v>
+        <v>14400</v>
       </c>
       <c r="G8" s="3">
-        <v>15700</v>
+        <v>21000</v>
       </c>
       <c r="H8" s="3">
-        <v>11800</v>
+        <v>17500</v>
       </c>
       <c r="I8" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K8" s="3">
         <v>15800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>34000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,44 +787,50 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>18700</v>
+      </c>
+      <c r="M9" s="3">
         <v>5800</v>
       </c>
-      <c r="E9" s="3">
-        <v>7700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="N9" s="3">
         <v>5800</v>
       </c>
-      <c r="H9" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>18700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>5800</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,44 +840,50 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8400</v>
+        <v>16500</v>
       </c>
       <c r="E10" s="3">
-        <v>12900</v>
+        <v>14800</v>
       </c>
       <c r="F10" s="3">
-        <v>10700</v>
+        <v>8500</v>
       </c>
       <c r="G10" s="3">
-        <v>9900</v>
+        <v>13200</v>
       </c>
       <c r="H10" s="3">
-        <v>6500</v>
+        <v>10900</v>
       </c>
       <c r="I10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K10" s="3">
         <v>7000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>15300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +893,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,44 +918,46 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7700</v>
+        <v>9800</v>
       </c>
       <c r="E12" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="F12" s="3">
-        <v>5900</v>
+        <v>7800</v>
       </c>
       <c r="G12" s="3">
-        <v>4600</v>
+        <v>8300</v>
       </c>
       <c r="H12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +967,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,34 +1020,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>300</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
@@ -1021,8 +1061,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1033,8 +1073,14 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1126,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,44 +1148,46 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31000</v>
+        <v>43400</v>
       </c>
       <c r="E17" s="3">
-        <v>34300</v>
+        <v>37700</v>
       </c>
       <c r="F17" s="3">
-        <v>26400</v>
+        <v>31500</v>
       </c>
       <c r="G17" s="3">
-        <v>23800</v>
+        <v>34900</v>
       </c>
       <c r="H17" s="3">
-        <v>22200</v>
+        <v>26800</v>
       </c>
       <c r="I17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K17" s="3">
         <v>28900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>68200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>21300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>21100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,44 +1197,50 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-16800</v>
+        <v>-19600</v>
       </c>
       <c r="E18" s="3">
-        <v>-13700</v>
+        <v>-15700</v>
       </c>
       <c r="F18" s="3">
-        <v>-9100</v>
+        <v>-17100</v>
       </c>
       <c r="G18" s="3">
-        <v>-8200</v>
+        <v>-13900</v>
       </c>
       <c r="H18" s="3">
-        <v>-10300</v>
+        <v>-9300</v>
       </c>
       <c r="I18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-34200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-10900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1250,14 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,44 +1275,46 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-427900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-7400</v>
-      </c>
       <c r="I20" s="3">
+        <v>-435100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-48600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-10500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-9200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1324,14 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,8 +1377,14 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1323,18 +1403,18 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,44 +1430,50 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17700</v>
+        <v>-20400</v>
       </c>
       <c r="E23" s="3">
-        <v>-11300</v>
+        <v>-14400</v>
       </c>
       <c r="F23" s="3">
-        <v>-7400</v>
+        <v>-18000</v>
       </c>
       <c r="G23" s="3">
-        <v>-436100</v>
+        <v>-11500</v>
       </c>
       <c r="H23" s="3">
-        <v>-17800</v>
+        <v>-7500</v>
       </c>
       <c r="I23" s="3">
+        <v>-443400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-20800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-83300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-20100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1483,14 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1536,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,44 +1589,50 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17700</v>
+        <v>-20400</v>
       </c>
       <c r="E26" s="3">
-        <v>-11300</v>
+        <v>-14400</v>
       </c>
       <c r="F26" s="3">
-        <v>-7400</v>
+        <v>-18000</v>
       </c>
       <c r="G26" s="3">
-        <v>-436100</v>
+        <v>-11500</v>
       </c>
       <c r="H26" s="3">
-        <v>-17800</v>
+        <v>-7500</v>
       </c>
       <c r="I26" s="3">
+        <v>-443400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-83300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,44 +1642,50 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17400</v>
+        <v>-20200</v>
       </c>
       <c r="E27" s="3">
-        <v>-11300</v>
+        <v>-14400</v>
       </c>
       <c r="F27" s="3">
-        <v>-7400</v>
+        <v>-17700</v>
       </c>
       <c r="G27" s="3">
-        <v>-436100</v>
+        <v>-11500</v>
       </c>
       <c r="H27" s="3">
-        <v>-17800</v>
+        <v>-7500</v>
       </c>
       <c r="I27" s="3">
+        <v>-443400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-20800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-83300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1695,14 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1748,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1801,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1854,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,44 +1907,50 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2400</v>
+        <v>-1300</v>
       </c>
       <c r="F32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
-        <v>427900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7400</v>
-      </c>
       <c r="I32" s="3">
+        <v>435100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K32" s="3">
         <v>6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>48600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>10500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>9200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,44 +1960,50 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17400</v>
+        <v>-20200</v>
       </c>
       <c r="E33" s="3">
-        <v>-11300</v>
+        <v>-14400</v>
       </c>
       <c r="F33" s="3">
-        <v>-7400</v>
+        <v>-17700</v>
       </c>
       <c r="G33" s="3">
-        <v>-436100</v>
+        <v>-11500</v>
       </c>
       <c r="H33" s="3">
-        <v>-17800</v>
+        <v>-7500</v>
       </c>
       <c r="I33" s="3">
+        <v>-443400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-20800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-83300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-20100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +2013,14 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,44 +2066,50 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17400</v>
+        <v>-20200</v>
       </c>
       <c r="E35" s="3">
-        <v>-11300</v>
+        <v>-14400</v>
       </c>
       <c r="F35" s="3">
-        <v>-7400</v>
+        <v>-17700</v>
       </c>
       <c r="G35" s="3">
-        <v>-436100</v>
+        <v>-11500</v>
       </c>
       <c r="H35" s="3">
-        <v>-17800</v>
+        <v>-7500</v>
       </c>
       <c r="I35" s="3">
+        <v>-443400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-20800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-83300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-20100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,49 +2119,55 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2177,14 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2202,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2223,37 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>164600</v>
+        <v>127600</v>
       </c>
       <c r="E41" s="3">
-        <v>211800</v>
+        <v>167000</v>
       </c>
       <c r="F41" s="3">
-        <v>251800</v>
+        <v>167400</v>
       </c>
       <c r="G41" s="3">
-        <v>283900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>215400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>256000</v>
       </c>
       <c r="I41" s="3">
+        <v>288600</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>21600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,43 +2272,49 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49100</v>
+        <v>29300</v>
       </c>
       <c r="E42" s="3">
-        <v>21600</v>
+        <v>22300</v>
       </c>
       <c r="F42" s="3">
-        <v>36000</v>
+        <v>49900</v>
       </c>
       <c r="G42" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>22000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>36600</v>
       </c>
       <c r="I42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>18800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2145,35 +2325,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34500</v>
+        <v>57200</v>
       </c>
       <c r="E43" s="3">
-        <v>32100</v>
+        <v>40900</v>
       </c>
       <c r="F43" s="3">
-        <v>25100</v>
+        <v>35100</v>
       </c>
       <c r="G43" s="3">
-        <v>17700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>32600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>25500</v>
       </c>
       <c r="I43" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>16200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,25 +2378,31 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="E44" s="3">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="F44" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="G44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3600</v>
       </c>
       <c r="I44" s="3">
         <v>2800</v>
@@ -2218,8 +2410,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>2800</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2239,35 +2431,41 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="E45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2484,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>258200</v>
+        <v>225400</v>
       </c>
       <c r="E46" s="3">
-        <v>275000</v>
+        <v>241100</v>
       </c>
       <c r="F46" s="3">
-        <v>322600</v>
+        <v>262500</v>
       </c>
       <c r="G46" s="3">
-        <v>317900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>279600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>328000</v>
       </c>
       <c r="I46" s="3">
+        <v>323200</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>66100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,22 +2537,28 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="E47" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2359,11 +2569,11 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2380,35 +2590,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E48" s="3">
         <v>20700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21000</v>
       </c>
-      <c r="F48" s="3">
-        <v>20100</v>
-      </c>
       <c r="G48" s="3">
-        <v>17300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>21400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>20500</v>
       </c>
       <c r="I48" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
         <v>19400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,35 +2643,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F49" s="3">
         <v>2100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2696,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2749,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,35 +2802,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2855,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2908,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>290100</v>
+        <v>258600</v>
       </c>
       <c r="E54" s="3">
-        <v>303300</v>
+        <v>273600</v>
       </c>
       <c r="F54" s="3">
-        <v>346000</v>
+        <v>295000</v>
       </c>
       <c r="G54" s="3">
-        <v>337700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>308400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>351800</v>
       </c>
       <c r="I54" s="3">
+        <v>343400</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>88300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2961,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2986,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +3007,37 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="E57" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="F57" s="3">
-        <v>44700</v>
+        <v>25500</v>
       </c>
       <c r="G57" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>22700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>45400</v>
       </c>
       <c r="I57" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>24600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,35 +3056,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E58" s="3">
-        <v>11600</v>
+        <v>7400</v>
       </c>
       <c r="F58" s="3">
-        <v>10600</v>
+        <v>7400</v>
       </c>
       <c r="G58" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>10700</v>
       </c>
       <c r="I58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,35 +3109,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
-        <v>900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3162,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35100</v>
+        <v>34500</v>
       </c>
       <c r="E60" s="3">
-        <v>35200</v>
+        <v>32200</v>
       </c>
       <c r="F60" s="3">
-        <v>56200</v>
+        <v>35700</v>
       </c>
       <c r="G60" s="3">
-        <v>32700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>35800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>57100</v>
       </c>
       <c r="I60" s="3">
+        <v>33200</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>32800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,35 +3215,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7000</v>
+        <v>5100</v>
       </c>
       <c r="E61" s="3">
-        <v>7500</v>
+        <v>6300</v>
       </c>
       <c r="F61" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G61" s="3">
-        <v>3900</v>
+        <v>7600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>329400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,20 +3268,26 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3008,11 +3300,11 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3029,8 +3321,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3374,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3427,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3480,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44700</v>
+        <v>42000</v>
       </c>
       <c r="E66" s="3">
-        <v>42700</v>
+        <v>41000</v>
       </c>
       <c r="F66" s="3">
-        <v>63300</v>
+        <v>45400</v>
       </c>
       <c r="G66" s="3">
-        <v>36600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>43400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>64300</v>
       </c>
       <c r="I66" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>362100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3533,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3558,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3607,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3660,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3713,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3766,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-781300</v>
+        <v>-832700</v>
       </c>
       <c r="E72" s="3">
-        <v>-764500</v>
+        <v>-813300</v>
       </c>
       <c r="F72" s="3">
-        <v>-742400</v>
+        <v>-794400</v>
       </c>
       <c r="G72" s="3">
-        <v>-723600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-777300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-754900</v>
       </c>
       <c r="I72" s="3">
+        <v>-735800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-273300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3819,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3872,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3925,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3978,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>245400</v>
+        <v>216600</v>
       </c>
       <c r="E76" s="3">
-        <v>260600</v>
+        <v>232600</v>
       </c>
       <c r="F76" s="3">
-        <v>282700</v>
+        <v>249500</v>
       </c>
       <c r="G76" s="3">
-        <v>301100</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>265000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>287500</v>
       </c>
       <c r="I76" s="3">
+        <v>306200</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>-273800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +4031,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,49 +4084,55 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,44 +4142,50 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17400</v>
+        <v>-20200</v>
       </c>
       <c r="E81" s="3">
-        <v>-11300</v>
+        <v>-14400</v>
       </c>
       <c r="F81" s="3">
-        <v>-7400</v>
+        <v>-17700</v>
       </c>
       <c r="G81" s="3">
-        <v>-436100</v>
+        <v>-11500</v>
       </c>
       <c r="H81" s="3">
-        <v>-17800</v>
+        <v>-7500</v>
       </c>
       <c r="I81" s="3">
+        <v>-443400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-20800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-83300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-20100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4195,14 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4220,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,8 +4269,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4322,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4375,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4428,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4481,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,8 +4534,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4138,11 +4572,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4587,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4612,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4204,11 +4646,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4661,14 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4714,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,8 +4767,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4345,11 +4805,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4360,8 +4820,14 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4845,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4894,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4947,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +5000,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +5053,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4599,11 +5091,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4614,8 +5106,14 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4646,11 +5144,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4661,8 +5159,14 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4693,11 +5197,11 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4706,6 +5210,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
   <si>
     <t>GTH</t>
   </si>
@@ -746,25 +746,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="E8" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="F8" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="G8" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="H8" s="3">
-        <v>17500</v>
+        <v>17700</v>
       </c>
       <c r="I8" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="J8" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="K8" s="3">
         <v>15800</v>
@@ -799,25 +799,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E9" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F9" s="3">
         <v>5900</v>
       </c>
       <c r="G9" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H9" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="I9" s="3">
         <v>5900</v>
       </c>
       <c r="J9" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K9" s="3">
         <v>8800</v>
@@ -852,25 +852,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="E10" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F10" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G10" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="H10" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="I10" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="J10" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="K10" s="3">
         <v>7000</v>
@@ -929,22 +929,22 @@
         <v>9800</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G12" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="H12" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I12" s="3">
         <v>4700</v>
       </c>
       <c r="J12" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K12" s="3">
         <v>5000</v>
@@ -1038,7 +1038,7 @@
         <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G14" s="3">
         <v>2000</v>
@@ -1156,25 +1156,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43400</v>
+        <v>43800</v>
       </c>
       <c r="E17" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="F17" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="G17" s="3">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="H17" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="I17" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="J17" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="K17" s="3">
         <v>28900</v>
@@ -1209,25 +1209,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19600</v>
+        <v>-19700</v>
       </c>
       <c r="E18" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="F18" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="G18" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="H18" s="3">
         <v>-9300</v>
       </c>
       <c r="I18" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="J18" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="K18" s="3">
         <v>-13100</v>
@@ -1295,10 +1295,10 @@
         <v>2500</v>
       </c>
       <c r="H20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I20" s="3">
-        <v>-435100</v>
+        <v>-438400</v>
       </c>
       <c r="J20" s="3">
         <v>-7600</v>
@@ -1442,25 +1442,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="E23" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="F23" s="3">
-        <v>-18000</v>
+        <v>-18100</v>
       </c>
       <c r="G23" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="H23" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I23" s="3">
-        <v>-443400</v>
+        <v>-446800</v>
       </c>
       <c r="J23" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="K23" s="3">
         <v>-20800</v>
@@ -1601,25 +1601,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="E26" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="F26" s="3">
-        <v>-18000</v>
+        <v>-18100</v>
       </c>
       <c r="G26" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="H26" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I26" s="3">
-        <v>-443400</v>
+        <v>-446800</v>
       </c>
       <c r="J26" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="K26" s="3">
         <v>-20800</v>
@@ -1654,25 +1654,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E27" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="F27" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="G27" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="H27" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I27" s="3">
-        <v>-443400</v>
+        <v>-446800</v>
       </c>
       <c r="J27" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="K27" s="3">
         <v>-20800</v>
@@ -1931,10 +1931,10 @@
         <v>-2500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I32" s="3">
-        <v>435100</v>
+        <v>438400</v>
       </c>
       <c r="J32" s="3">
         <v>7600</v>
@@ -1972,25 +1972,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E33" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="F33" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="G33" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="H33" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I33" s="3">
-        <v>-443400</v>
+        <v>-446800</v>
       </c>
       <c r="J33" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="K33" s="3">
         <v>-20800</v>
@@ -2078,25 +2078,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E35" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="F35" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="G35" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="H35" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I35" s="3">
-        <v>-443400</v>
+        <v>-446800</v>
       </c>
       <c r="J35" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="K35" s="3">
         <v>-20800</v>
@@ -2231,25 +2231,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>127600</v>
+        <v>128600</v>
       </c>
       <c r="E41" s="3">
-        <v>167000</v>
+        <v>168300</v>
       </c>
       <c r="F41" s="3">
-        <v>167400</v>
+        <v>168600</v>
       </c>
       <c r="G41" s="3">
-        <v>215400</v>
+        <v>217000</v>
       </c>
       <c r="H41" s="3">
-        <v>256000</v>
+        <v>257900</v>
       </c>
       <c r="I41" s="3">
-        <v>288600</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>290800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>22100</v>
       </c>
       <c r="K41" s="3">
         <v>21600</v>
@@ -2284,25 +2284,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29300</v>
+        <v>29600</v>
       </c>
       <c r="E42" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="F42" s="3">
-        <v>49900</v>
+        <v>50300</v>
       </c>
       <c r="G42" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="H42" s="3">
-        <v>36600</v>
+        <v>36800</v>
       </c>
       <c r="I42" s="3">
         <v>7500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="J42" s="3">
+        <v>19300</v>
       </c>
       <c r="K42" s="3">
         <v>18800</v>
@@ -2337,25 +2337,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>57200</v>
+        <v>57700</v>
       </c>
       <c r="E43" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="F43" s="3">
-        <v>35100</v>
+        <v>35400</v>
       </c>
       <c r="G43" s="3">
-        <v>32600</v>
+        <v>32900</v>
       </c>
       <c r="H43" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="I43" s="3">
-        <v>18000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>18200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>16600</v>
       </c>
       <c r="K43" s="3">
         <v>16200</v>
@@ -2390,7 +2390,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E44" s="3">
         <v>5200</v>
@@ -2405,10 +2405,10 @@
         <v>3600</v>
       </c>
       <c r="I44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J44" s="3">
         <v>2800</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>2800</v>
@@ -2452,16 +2452,16 @@
         <v>6100</v>
       </c>
       <c r="G45" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="I45" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>6900</v>
       </c>
       <c r="K45" s="3">
         <v>6700</v>
@@ -2496,25 +2496,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>225400</v>
+        <v>227100</v>
       </c>
       <c r="E46" s="3">
-        <v>241100</v>
+        <v>243000</v>
       </c>
       <c r="F46" s="3">
-        <v>262500</v>
+        <v>264500</v>
       </c>
       <c r="G46" s="3">
-        <v>279600</v>
+        <v>281800</v>
       </c>
       <c r="H46" s="3">
-        <v>328000</v>
+        <v>330500</v>
       </c>
       <c r="I46" s="3">
-        <v>323200</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>325700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>67700</v>
       </c>
       <c r="K46" s="3">
         <v>66100</v>
@@ -2602,25 +2602,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="E48" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="F48" s="3">
-        <v>21000</v>
+        <v>21200</v>
       </c>
       <c r="G48" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="H48" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="I48" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>17800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>19900</v>
       </c>
       <c r="K48" s="3">
         <v>19400</v>
@@ -2661,7 +2661,7 @@
         <v>2400</v>
       </c>
       <c r="F49" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G49" s="3">
         <v>1900</v>
@@ -2672,8 +2672,8 @@
       <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>900</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
@@ -2829,10 +2829,10 @@
         <v>1900</v>
       </c>
       <c r="I52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2000</v>
       </c>
       <c r="K52" s="3">
         <v>2000</v>
@@ -2920,25 +2920,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>258600</v>
+        <v>260600</v>
       </c>
       <c r="E54" s="3">
-        <v>273600</v>
+        <v>275700</v>
       </c>
       <c r="F54" s="3">
-        <v>295000</v>
+        <v>297200</v>
       </c>
       <c r="G54" s="3">
-        <v>308400</v>
+        <v>310800</v>
       </c>
       <c r="H54" s="3">
-        <v>351800</v>
+        <v>354500</v>
       </c>
       <c r="I54" s="3">
-        <v>343400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>346000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>90500</v>
       </c>
       <c r="K54" s="3">
         <v>88300</v>
@@ -3015,25 +3015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="E57" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="F57" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="G57" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="H57" s="3">
-        <v>45400</v>
+        <v>45800</v>
       </c>
       <c r="I57" s="3">
-        <v>21800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>22000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>25200</v>
       </c>
       <c r="K57" s="3">
         <v>24600</v>
@@ -3068,25 +3068,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E58" s="3">
         <v>7400</v>
       </c>
       <c r="F58" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G58" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="H58" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="I58" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5500</v>
       </c>
       <c r="K58" s="3">
         <v>5400</v>
@@ -3138,8 +3138,8 @@
       <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>2900</v>
       </c>
       <c r="K59" s="3">
         <v>2800</v>
@@ -3174,25 +3174,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="E60" s="3">
-        <v>32200</v>
+        <v>32400</v>
       </c>
       <c r="F60" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="G60" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="H60" s="3">
-        <v>57100</v>
+        <v>57600</v>
       </c>
       <c r="I60" s="3">
-        <v>33200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>33500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>33600</v>
       </c>
       <c r="K60" s="3">
         <v>32800</v>
@@ -3227,25 +3227,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E61" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F61" s="3">
         <v>7200</v>
       </c>
       <c r="G61" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H61" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I61" s="3">
         <v>4000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>337500</v>
       </c>
       <c r="K61" s="3">
         <v>329400</v>
@@ -3492,25 +3492,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="E66" s="3">
-        <v>41000</v>
+        <v>41300</v>
       </c>
       <c r="F66" s="3">
-        <v>45400</v>
+        <v>45800</v>
       </c>
       <c r="G66" s="3">
-        <v>43400</v>
+        <v>43800</v>
       </c>
       <c r="H66" s="3">
-        <v>64300</v>
+        <v>64800</v>
       </c>
       <c r="I66" s="3">
-        <v>37200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>37500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>371000</v>
       </c>
       <c r="K66" s="3">
         <v>362100</v>
@@ -3778,25 +3778,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-832700</v>
+        <v>-839100</v>
       </c>
       <c r="E72" s="3">
-        <v>-813300</v>
+        <v>-819500</v>
       </c>
       <c r="F72" s="3">
-        <v>-794400</v>
+        <v>-800500</v>
       </c>
       <c r="G72" s="3">
-        <v>-777300</v>
+        <v>-783300</v>
       </c>
       <c r="H72" s="3">
-        <v>-754900</v>
+        <v>-760700</v>
       </c>
       <c r="I72" s="3">
-        <v>-735800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-741400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-280000</v>
       </c>
       <c r="K72" s="3">
         <v>-273300</v>
@@ -3990,25 +3990,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>216600</v>
+        <v>218300</v>
       </c>
       <c r="E76" s="3">
-        <v>232600</v>
+        <v>234400</v>
       </c>
       <c r="F76" s="3">
-        <v>249500</v>
+        <v>251400</v>
       </c>
       <c r="G76" s="3">
-        <v>265000</v>
+        <v>267000</v>
       </c>
       <c r="H76" s="3">
-        <v>287500</v>
+        <v>289700</v>
       </c>
       <c r="I76" s="3">
-        <v>306200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>308500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-280500</v>
       </c>
       <c r="K76" s="3">
         <v>-273800</v>
@@ -4154,25 +4154,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E81" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="F81" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="G81" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="H81" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I81" s="3">
-        <v>-443400</v>
+        <v>-446800</v>
       </c>
       <c r="J81" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="K81" s="3">
         <v>-20800</v>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -746,25 +746,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="E8" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="F8" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="G8" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="H8" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="I8" s="3">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="J8" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="K8" s="3">
         <v>15800</v>
@@ -799,25 +799,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="E9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7900</v>
-      </c>
       <c r="H9" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="I9" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="J9" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="K9" s="3">
         <v>8800</v>
@@ -852,25 +852,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="E10" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="F10" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="G10" s="3">
-        <v>13300</v>
+        <v>12400</v>
       </c>
       <c r="H10" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="I10" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="J10" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="K10" s="3">
         <v>7000</v>
@@ -926,25 +926,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="E12" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="F12" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="G12" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="H12" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="I12" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="J12" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K12" s="3">
         <v>5000</v>
@@ -1032,16 +1032,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
         <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
@@ -1156,25 +1156,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43800</v>
+        <v>40900</v>
       </c>
       <c r="E17" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="F17" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="G17" s="3">
-        <v>35100</v>
+        <v>32800</v>
       </c>
       <c r="H17" s="3">
-        <v>27000</v>
+        <v>25200</v>
       </c>
       <c r="I17" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="J17" s="3">
-        <v>22700</v>
+        <v>21200</v>
       </c>
       <c r="K17" s="3">
         <v>28900</v>
@@ -1209,25 +1209,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19700</v>
+        <v>-18400</v>
       </c>
       <c r="E18" s="3">
-        <v>-15800</v>
+        <v>-14800</v>
       </c>
       <c r="F18" s="3">
-        <v>-17200</v>
+        <v>-16100</v>
       </c>
       <c r="G18" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="H18" s="3">
-        <v>-9300</v>
+        <v>-8700</v>
       </c>
       <c r="I18" s="3">
-        <v>-8400</v>
+        <v>-7800</v>
       </c>
       <c r="J18" s="3">
-        <v>-10600</v>
+        <v>-9900</v>
       </c>
       <c r="K18" s="3">
         <v>-13100</v>
@@ -1286,22 +1286,22 @@
         <v>-800</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G20" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H20" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="I20" s="3">
-        <v>-438400</v>
+        <v>-409500</v>
       </c>
       <c r="J20" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="K20" s="3">
         <v>-6500</v>
@@ -1442,25 +1442,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20500</v>
+        <v>-19200</v>
       </c>
       <c r="E23" s="3">
-        <v>-14500</v>
+        <v>-13600</v>
       </c>
       <c r="F23" s="3">
-        <v>-18100</v>
+        <v>-17000</v>
       </c>
       <c r="G23" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="H23" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="I23" s="3">
-        <v>-446800</v>
+        <v>-417400</v>
       </c>
       <c r="J23" s="3">
-        <v>-18200</v>
+        <v>-17000</v>
       </c>
       <c r="K23" s="3">
         <v>-20800</v>
@@ -1601,25 +1601,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20500</v>
+        <v>-19200</v>
       </c>
       <c r="E26" s="3">
-        <v>-14500</v>
+        <v>-13600</v>
       </c>
       <c r="F26" s="3">
-        <v>-18100</v>
+        <v>-17000</v>
       </c>
       <c r="G26" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="H26" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="I26" s="3">
-        <v>-446800</v>
+        <v>-417400</v>
       </c>
       <c r="J26" s="3">
-        <v>-18200</v>
+        <v>-17000</v>
       </c>
       <c r="K26" s="3">
         <v>-20800</v>
@@ -1654,25 +1654,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="E27" s="3">
-        <v>-14500</v>
+        <v>-13500</v>
       </c>
       <c r="F27" s="3">
-        <v>-17800</v>
+        <v>-16600</v>
       </c>
       <c r="G27" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="H27" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="I27" s="3">
-        <v>-446800</v>
+        <v>-417400</v>
       </c>
       <c r="J27" s="3">
-        <v>-18200</v>
+        <v>-17000</v>
       </c>
       <c r="K27" s="3">
         <v>-20800</v>
@@ -1922,22 +1922,22 @@
         <v>800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="I32" s="3">
-        <v>438400</v>
+        <v>409500</v>
       </c>
       <c r="J32" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="K32" s="3">
         <v>6500</v>
@@ -1972,25 +1972,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="E33" s="3">
-        <v>-14500</v>
+        <v>-13500</v>
       </c>
       <c r="F33" s="3">
-        <v>-17800</v>
+        <v>-16600</v>
       </c>
       <c r="G33" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="H33" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="I33" s="3">
-        <v>-446800</v>
+        <v>-417400</v>
       </c>
       <c r="J33" s="3">
-        <v>-18200</v>
+        <v>-17000</v>
       </c>
       <c r="K33" s="3">
         <v>-20800</v>
@@ -2078,25 +2078,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="E35" s="3">
-        <v>-14500</v>
+        <v>-13500</v>
       </c>
       <c r="F35" s="3">
-        <v>-17800</v>
+        <v>-16600</v>
       </c>
       <c r="G35" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="H35" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="I35" s="3">
-        <v>-446800</v>
+        <v>-417400</v>
       </c>
       <c r="J35" s="3">
-        <v>-18200</v>
+        <v>-17000</v>
       </c>
       <c r="K35" s="3">
         <v>-20800</v>
@@ -2231,25 +2231,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128600</v>
+        <v>120100</v>
       </c>
       <c r="E41" s="3">
-        <v>168300</v>
+        <v>157200</v>
       </c>
       <c r="F41" s="3">
-        <v>168600</v>
+        <v>157500</v>
       </c>
       <c r="G41" s="3">
-        <v>217000</v>
+        <v>202700</v>
       </c>
       <c r="H41" s="3">
-        <v>257900</v>
+        <v>240900</v>
       </c>
       <c r="I41" s="3">
-        <v>290800</v>
+        <v>271700</v>
       </c>
       <c r="J41" s="3">
-        <v>22100</v>
+        <v>20600</v>
       </c>
       <c r="K41" s="3">
         <v>21600</v>
@@ -2284,25 +2284,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29600</v>
+        <v>27600</v>
       </c>
       <c r="E42" s="3">
-        <v>22400</v>
+        <v>21000</v>
       </c>
       <c r="F42" s="3">
-        <v>50300</v>
+        <v>47000</v>
       </c>
       <c r="G42" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="H42" s="3">
-        <v>36800</v>
+        <v>34400</v>
       </c>
       <c r="I42" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="J42" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="K42" s="3">
         <v>18800</v>
@@ -2337,25 +2337,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>57700</v>
+        <v>53900</v>
       </c>
       <c r="E43" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="F43" s="3">
-        <v>35400</v>
+        <v>33000</v>
       </c>
       <c r="G43" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="H43" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="I43" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="J43" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="K43" s="3">
         <v>16200</v>
@@ -2390,25 +2390,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="E44" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F44" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="G44" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H44" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="I44" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J44" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K44" s="3">
         <v>2800</v>
@@ -2443,25 +2443,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="E45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6900</v>
       </c>
       <c r="K45" s="3">
         <v>6700</v>
@@ -2496,25 +2496,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>227100</v>
+        <v>212200</v>
       </c>
       <c r="E46" s="3">
-        <v>243000</v>
+        <v>227000</v>
       </c>
       <c r="F46" s="3">
-        <v>264500</v>
+        <v>247100</v>
       </c>
       <c r="G46" s="3">
-        <v>281800</v>
+        <v>263200</v>
       </c>
       <c r="H46" s="3">
-        <v>330500</v>
+        <v>308700</v>
       </c>
       <c r="I46" s="3">
-        <v>325700</v>
+        <v>304200</v>
       </c>
       <c r="J46" s="3">
-        <v>67700</v>
+        <v>63200</v>
       </c>
       <c r="K46" s="3">
         <v>66100</v>
@@ -2549,16 +2549,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="E47" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="F47" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="G47" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2602,25 +2602,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="E48" s="3">
-        <v>20900</v>
+        <v>19500</v>
       </c>
       <c r="F48" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="G48" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="H48" s="3">
-        <v>20600</v>
+        <v>19300</v>
       </c>
       <c r="I48" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="J48" s="3">
-        <v>19900</v>
+        <v>18600</v>
       </c>
       <c r="K48" s="3">
         <v>19400</v>
@@ -2655,25 +2655,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F49" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>1000</v>
       </c>
       <c r="J49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
@@ -2814,25 +2814,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F52" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G52" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J52" s="3">
         <v>1900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2000</v>
       </c>
       <c r="K52" s="3">
         <v>2000</v>
@@ -2920,25 +2920,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>260600</v>
+        <v>243400</v>
       </c>
       <c r="E54" s="3">
-        <v>275700</v>
+        <v>257500</v>
       </c>
       <c r="F54" s="3">
-        <v>297200</v>
+        <v>277600</v>
       </c>
       <c r="G54" s="3">
-        <v>310800</v>
+        <v>290300</v>
       </c>
       <c r="H54" s="3">
-        <v>354500</v>
+        <v>331100</v>
       </c>
       <c r="I54" s="3">
-        <v>346000</v>
+        <v>323200</v>
       </c>
       <c r="J54" s="3">
-        <v>90500</v>
+        <v>84500</v>
       </c>
       <c r="K54" s="3">
         <v>88300</v>
@@ -3015,25 +3015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25000</v>
+        <v>23300</v>
       </c>
       <c r="E57" s="3">
-        <v>22700</v>
+        <v>21200</v>
       </c>
       <c r="F57" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="G57" s="3">
-        <v>22900</v>
+        <v>21400</v>
       </c>
       <c r="H57" s="3">
-        <v>45800</v>
+        <v>42800</v>
       </c>
       <c r="I57" s="3">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="J57" s="3">
-        <v>25200</v>
+        <v>23500</v>
       </c>
       <c r="K57" s="3">
         <v>24600</v>
@@ -3068,25 +3068,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="F58" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="G58" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="H58" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="I58" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="J58" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="K58" s="3">
         <v>5400</v>
@@ -3121,25 +3121,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E59" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="F59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K59" s="3">
         <v>2800</v>
@@ -3174,25 +3174,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34700</v>
+        <v>32500</v>
       </c>
       <c r="E60" s="3">
-        <v>32400</v>
+        <v>30300</v>
       </c>
       <c r="F60" s="3">
-        <v>36000</v>
+        <v>33600</v>
       </c>
       <c r="G60" s="3">
-        <v>36100</v>
+        <v>33700</v>
       </c>
       <c r="H60" s="3">
-        <v>57600</v>
+        <v>53800</v>
       </c>
       <c r="I60" s="3">
-        <v>33500</v>
+        <v>31300</v>
       </c>
       <c r="J60" s="3">
-        <v>33600</v>
+        <v>31300</v>
       </c>
       <c r="K60" s="3">
         <v>32800</v>
@@ -3227,25 +3227,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="E61" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="F61" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="G61" s="3">
-        <v>7700</v>
+        <v>7100</v>
       </c>
       <c r="H61" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="I61" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="J61" s="3">
-        <v>337500</v>
+        <v>315200</v>
       </c>
       <c r="K61" s="3">
         <v>329400</v>
@@ -3280,10 +3280,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -3492,25 +3492,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42300</v>
+        <v>39500</v>
       </c>
       <c r="E66" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="F66" s="3">
-        <v>45800</v>
+        <v>42800</v>
       </c>
       <c r="G66" s="3">
-        <v>43800</v>
+        <v>40900</v>
       </c>
       <c r="H66" s="3">
-        <v>64800</v>
+        <v>60500</v>
       </c>
       <c r="I66" s="3">
-        <v>37500</v>
+        <v>35000</v>
       </c>
       <c r="J66" s="3">
-        <v>371000</v>
+        <v>346600</v>
       </c>
       <c r="K66" s="3">
         <v>362100</v>
@@ -3778,25 +3778,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-839100</v>
+        <v>-783800</v>
       </c>
       <c r="E72" s="3">
-        <v>-819500</v>
+        <v>-765500</v>
       </c>
       <c r="F72" s="3">
-        <v>-800500</v>
+        <v>-747700</v>
       </c>
       <c r="G72" s="3">
-        <v>-783300</v>
+        <v>-731700</v>
       </c>
       <c r="H72" s="3">
-        <v>-760700</v>
+        <v>-710500</v>
       </c>
       <c r="I72" s="3">
-        <v>-741400</v>
+        <v>-692500</v>
       </c>
       <c r="J72" s="3">
-        <v>-280000</v>
+        <v>-261500</v>
       </c>
       <c r="K72" s="3">
         <v>-273300</v>
@@ -3990,25 +3990,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>218300</v>
+        <v>203900</v>
       </c>
       <c r="E76" s="3">
-        <v>234400</v>
+        <v>218900</v>
       </c>
       <c r="F76" s="3">
-        <v>251400</v>
+        <v>234900</v>
       </c>
       <c r="G76" s="3">
-        <v>267000</v>
+        <v>249400</v>
       </c>
       <c r="H76" s="3">
-        <v>289700</v>
+        <v>270600</v>
       </c>
       <c r="I76" s="3">
-        <v>308500</v>
+        <v>288200</v>
       </c>
       <c r="J76" s="3">
-        <v>-280500</v>
+        <v>-262100</v>
       </c>
       <c r="K76" s="3">
         <v>-273800</v>
@@ -4154,25 +4154,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="E81" s="3">
-        <v>-14500</v>
+        <v>-13500</v>
       </c>
       <c r="F81" s="3">
-        <v>-17800</v>
+        <v>-16600</v>
       </c>
       <c r="G81" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="H81" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="I81" s="3">
-        <v>-446800</v>
+        <v>-417400</v>
       </c>
       <c r="J81" s="3">
-        <v>-18200</v>
+        <v>-17000</v>
       </c>
       <c r="K81" s="3">
         <v>-20800</v>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="92">
   <si>
     <t>GTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,50 +741,56 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>22500</v>
+        <v>16100</v>
       </c>
       <c r="E8" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="F8" s="3">
-        <v>13600</v>
+        <v>22300</v>
       </c>
       <c r="G8" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="H8" s="3">
-        <v>16500</v>
+        <v>13400</v>
       </c>
       <c r="I8" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K8" s="3">
         <v>15000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>34000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,50 +800,56 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E9" s="3">
-        <v>6800</v>
+        <v>9200</v>
       </c>
       <c r="F9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H9" s="3">
         <v>5500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>18700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,50 +859,56 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="E10" s="3">
-        <v>13900</v>
+        <v>12200</v>
       </c>
       <c r="F10" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H10" s="3">
         <v>8000</v>
       </c>
-      <c r="G10" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>10300</v>
-      </c>
       <c r="I10" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K10" s="3">
         <v>9500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>15300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +918,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,50 +945,52 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9200</v>
+        <v>11600</v>
       </c>
       <c r="E12" s="3">
-        <v>8300</v>
+        <v>12500</v>
       </c>
       <c r="F12" s="3">
-        <v>7400</v>
+        <v>9100</v>
       </c>
       <c r="G12" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="H12" s="3">
-        <v>5700</v>
+        <v>7300</v>
       </c>
       <c r="I12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +1000,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,40 +1059,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E14" s="3">
-        <v>500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>300</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
@@ -1067,8 +1106,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1079,8 +1118,14 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1177,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1201,52 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="E17" s="3">
-        <v>35500</v>
+        <v>48300</v>
       </c>
       <c r="F17" s="3">
-        <v>29600</v>
+        <v>40500</v>
       </c>
       <c r="G17" s="3">
-        <v>32800</v>
+        <v>35100</v>
       </c>
       <c r="H17" s="3">
-        <v>25200</v>
+        <v>29400</v>
       </c>
       <c r="I17" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K17" s="3">
         <v>22800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>21200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>28900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>68200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>21100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,50 +1256,56 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18400</v>
+        <v>-26300</v>
       </c>
       <c r="E18" s="3">
-        <v>-14800</v>
+        <v>-26800</v>
       </c>
       <c r="F18" s="3">
-        <v>-16100</v>
+        <v>-18200</v>
       </c>
       <c r="G18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="M18" s="3">
         <v>-13100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-34200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-10900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1315,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,50 +1342,52 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-409500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-48600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-10500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-9200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,8 +1397,14 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,8 +1456,14 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1409,18 +1488,18 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1436,50 +1515,56 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19200</v>
+        <v>-25500</v>
       </c>
       <c r="E23" s="3">
-        <v>-13600</v>
+        <v>-24100</v>
       </c>
       <c r="F23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-417400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-17000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-417400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-20800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-83300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-20700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-20100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1574,14 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1633,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1692,56 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19200</v>
+        <v>-25500</v>
       </c>
       <c r="E26" s="3">
-        <v>-13600</v>
+        <v>-24100</v>
       </c>
       <c r="F26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-417400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-17000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-417400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-83300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-20700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-20100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1751,56 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19000</v>
+        <v>-25500</v>
       </c>
       <c r="E27" s="3">
-        <v>-13500</v>
+        <v>-23800</v>
       </c>
       <c r="F27" s="3">
-        <v>-16600</v>
+        <v>-18800</v>
       </c>
       <c r="G27" s="3">
-        <v>-10800</v>
+        <v>-13400</v>
       </c>
       <c r="H27" s="3">
-        <v>-7100</v>
+        <v>-16500</v>
       </c>
       <c r="I27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-417400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-83300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-20700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-20100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1810,14 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1869,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1928,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1987,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,50 +2046,56 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>409500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>48600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>10500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>9200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,50 +2105,56 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19000</v>
+        <v>-25500</v>
       </c>
       <c r="E33" s="3">
-        <v>-13500</v>
+        <v>-23800</v>
       </c>
       <c r="F33" s="3">
-        <v>-16600</v>
+        <v>-18800</v>
       </c>
       <c r="G33" s="3">
-        <v>-10800</v>
+        <v>-13400</v>
       </c>
       <c r="H33" s="3">
-        <v>-7100</v>
+        <v>-16500</v>
       </c>
       <c r="I33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-417400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-83300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-20700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-20100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2164,14 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2223,56 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19000</v>
+        <v>-25500</v>
       </c>
       <c r="E35" s="3">
-        <v>-13500</v>
+        <v>-23800</v>
       </c>
       <c r="F35" s="3">
-        <v>-16600</v>
+        <v>-18800</v>
       </c>
       <c r="G35" s="3">
-        <v>-10800</v>
+        <v>-13400</v>
       </c>
       <c r="H35" s="3">
-        <v>-7100</v>
+        <v>-16500</v>
       </c>
       <c r="I35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-417400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-83300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-20700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-20100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2282,61 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2346,14 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2373,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2396,43 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120100</v>
+        <v>46600</v>
       </c>
       <c r="E41" s="3">
-        <v>157200</v>
+        <v>93300</v>
       </c>
       <c r="F41" s="3">
-        <v>157500</v>
+        <v>119000</v>
       </c>
       <c r="G41" s="3">
-        <v>202700</v>
+        <v>155800</v>
       </c>
       <c r="H41" s="3">
-        <v>240900</v>
+        <v>156100</v>
       </c>
       <c r="I41" s="3">
+        <v>200900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>238800</v>
+      </c>
+      <c r="K41" s="3">
         <v>271700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>20600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>21600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,49 +2451,55 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27600</v>
+        <v>35000</v>
       </c>
       <c r="E42" s="3">
-        <v>21000</v>
+        <v>22100</v>
       </c>
       <c r="F42" s="3">
-        <v>47000</v>
+        <v>27400</v>
       </c>
       <c r="G42" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="H42" s="3">
-        <v>34400</v>
+        <v>46500</v>
       </c>
       <c r="I42" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>18000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>18800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2331,41 +2510,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>53900</v>
+        <v>59400</v>
       </c>
       <c r="E43" s="3">
-        <v>38500</v>
+        <v>56700</v>
       </c>
       <c r="F43" s="3">
-        <v>33000</v>
+        <v>53400</v>
       </c>
       <c r="G43" s="3">
-        <v>30700</v>
+        <v>38100</v>
       </c>
       <c r="H43" s="3">
-        <v>24000</v>
+        <v>32700</v>
       </c>
       <c r="I43" s="3">
+        <v>30400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K43" s="3">
         <v>17000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>15500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>16200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,41 +2569,47 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F44" s="3">
         <v>6100</v>
       </c>
-      <c r="E44" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="G44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J44" s="3">
         <v>3400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,41 +2628,47 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F45" s="3">
         <v>4400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5700</v>
       </c>
       <c r="G45" s="3">
         <v>5400</v>
       </c>
       <c r="H45" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="I45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2687,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>212200</v>
+        <v>152500</v>
       </c>
       <c r="E46" s="3">
-        <v>227000</v>
+        <v>182100</v>
       </c>
       <c r="F46" s="3">
-        <v>247100</v>
+        <v>210200</v>
       </c>
       <c r="G46" s="3">
-        <v>263200</v>
+        <v>224900</v>
       </c>
       <c r="H46" s="3">
-        <v>308700</v>
+        <v>244800</v>
       </c>
       <c r="I46" s="3">
+        <v>260800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>305900</v>
+      </c>
+      <c r="K46" s="3">
         <v>304200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>63200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>66100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,29 +2746,35 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5500</v>
+        <v>7100</v>
       </c>
       <c r="E47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F47" s="3">
         <v>5400</v>
       </c>
-      <c r="F47" s="3">
-        <v>4900</v>
-      </c>
       <c r="G47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,11 +2784,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2596,41 +2805,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20100</v>
+        <v>26200</v>
       </c>
       <c r="E48" s="3">
-        <v>19500</v>
+        <v>23700</v>
       </c>
       <c r="F48" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="G48" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="H48" s="3">
-        <v>19300</v>
+        <v>19600</v>
       </c>
       <c r="I48" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K48" s="3">
         <v>16600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,41 +2864,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2923,14 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2982,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,41 +3041,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3900</v>
-      </c>
       <c r="G52" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="H52" s="3">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="I52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3100,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3159,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>243400</v>
+        <v>194000</v>
       </c>
       <c r="E54" s="3">
-        <v>257500</v>
+        <v>221600</v>
       </c>
       <c r="F54" s="3">
-        <v>277600</v>
+        <v>241200</v>
       </c>
       <c r="G54" s="3">
-        <v>290300</v>
+        <v>255200</v>
       </c>
       <c r="H54" s="3">
-        <v>331100</v>
+        <v>275100</v>
       </c>
       <c r="I54" s="3">
+        <v>287700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>328100</v>
+      </c>
+      <c r="K54" s="3">
         <v>323200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>84500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>88300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3218,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3245,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3268,43 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23300</v>
+        <v>27400</v>
       </c>
       <c r="E57" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>23800</v>
+      </c>
+      <c r="I57" s="3">
         <v>21200</v>
       </c>
-      <c r="F57" s="3">
-        <v>24000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>42800</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K57" s="3">
         <v>20500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>23500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>24600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,41 +3323,47 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7000</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F58" s="3">
         <v>6900</v>
       </c>
-      <c r="F58" s="3">
-        <v>7000</v>
-      </c>
       <c r="G58" s="3">
-        <v>11100</v>
+        <v>6900</v>
       </c>
       <c r="H58" s="3">
-        <v>10100</v>
+        <v>6900</v>
       </c>
       <c r="I58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K58" s="3">
         <v>9900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,41 +3382,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,41 +3441,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32500</v>
+        <v>36400</v>
       </c>
       <c r="E60" s="3">
-        <v>30300</v>
+        <v>38700</v>
       </c>
       <c r="F60" s="3">
-        <v>33600</v>
+        <v>32200</v>
       </c>
       <c r="G60" s="3">
-        <v>33700</v>
+        <v>30000</v>
       </c>
       <c r="H60" s="3">
-        <v>53800</v>
+        <v>33300</v>
       </c>
       <c r="I60" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K60" s="3">
         <v>31300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>31300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>32800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,41 +3500,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7100</v>
       </c>
-      <c r="H61" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>315200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>329400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3274,25 +3559,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -3306,11 +3597,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3327,8 +3618,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3677,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3736,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3795,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39500</v>
+        <v>42700</v>
       </c>
       <c r="E66" s="3">
-        <v>38600</v>
+        <v>45600</v>
       </c>
       <c r="F66" s="3">
-        <v>42800</v>
+        <v>39200</v>
       </c>
       <c r="G66" s="3">
-        <v>40900</v>
+        <v>38300</v>
       </c>
       <c r="H66" s="3">
-        <v>60500</v>
+        <v>42400</v>
       </c>
       <c r="I66" s="3">
+        <v>40500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K66" s="3">
         <v>35000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>346600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>362100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3854,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3881,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3936,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3995,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +4054,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +4113,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-783800</v>
+        <v>-828800</v>
       </c>
       <c r="E72" s="3">
-        <v>-765500</v>
+        <v>-804000</v>
       </c>
       <c r="F72" s="3">
-        <v>-747700</v>
+        <v>-776700</v>
       </c>
       <c r="G72" s="3">
-        <v>-731700</v>
+        <v>-758600</v>
       </c>
       <c r="H72" s="3">
-        <v>-710500</v>
+        <v>-741000</v>
       </c>
       <c r="I72" s="3">
+        <v>-725100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-704100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-692500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-261500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-273300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +4172,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4231,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4290,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4349,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>203900</v>
+        <v>151300</v>
       </c>
       <c r="E76" s="3">
-        <v>218900</v>
+        <v>176100</v>
       </c>
       <c r="F76" s="3">
-        <v>234900</v>
+        <v>202100</v>
       </c>
       <c r="G76" s="3">
-        <v>249400</v>
+        <v>216900</v>
       </c>
       <c r="H76" s="3">
-        <v>270600</v>
+        <v>232800</v>
       </c>
       <c r="I76" s="3">
+        <v>247200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>268100</v>
+      </c>
+      <c r="K76" s="3">
         <v>288200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-262100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-273800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4408,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4467,61 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4531,56 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19000</v>
+        <v>-25500</v>
       </c>
       <c r="E81" s="3">
-        <v>-13500</v>
+        <v>-23800</v>
       </c>
       <c r="F81" s="3">
-        <v>-16600</v>
+        <v>-18800</v>
       </c>
       <c r="G81" s="3">
-        <v>-10800</v>
+        <v>-13400</v>
       </c>
       <c r="H81" s="3">
-        <v>-7100</v>
+        <v>-16500</v>
       </c>
       <c r="I81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-417400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-83300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-20700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-20100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4590,14 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4617,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4275,8 +4672,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4731,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4790,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4849,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4908,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,8 +4967,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4578,11 +5011,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +5026,14 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +5053,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4652,11 +5093,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +5108,14 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +5167,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,8 +5226,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4811,11 +5270,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5285,14 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5312,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5367,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5426,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5485,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,8 +5544,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5097,11 +5588,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5603,14 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5150,11 +5647,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -5165,8 +5662,14 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5203,11 +5706,11 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5719,12 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="92">
   <si>
     <t>GTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,53 +748,56 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16100</v>
+        <v>19200</v>
       </c>
       <c r="E8" s="3">
-        <v>21500</v>
+        <v>15400</v>
       </c>
       <c r="F8" s="3">
-        <v>22300</v>
+        <v>20400</v>
       </c>
       <c r="G8" s="3">
-        <v>20500</v>
+        <v>21200</v>
       </c>
       <c r="H8" s="3">
-        <v>13400</v>
+        <v>19600</v>
       </c>
       <c r="I8" s="3">
-        <v>19600</v>
+        <v>12800</v>
       </c>
       <c r="J8" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K8" s="3">
         <v>16400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,52 +810,55 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7100</v>
+        <v>11400</v>
       </c>
       <c r="E9" s="3">
-        <v>9200</v>
+        <v>6800</v>
       </c>
       <c r="F9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L9" s="3">
         <v>5500</v>
       </c>
-      <c r="I9" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>5800</v>
       </c>
       <c r="P9" s="3">
         <v>5800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>5800</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -865,53 +872,56 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9000</v>
+        <v>7800</v>
       </c>
       <c r="E10" s="3">
-        <v>12200</v>
+        <v>8600</v>
       </c>
       <c r="F10" s="3">
-        <v>15400</v>
+        <v>11700</v>
       </c>
       <c r="G10" s="3">
-        <v>13800</v>
+        <v>14600</v>
       </c>
       <c r="H10" s="3">
-        <v>8000</v>
+        <v>13200</v>
       </c>
       <c r="I10" s="3">
-        <v>12300</v>
+        <v>7600</v>
       </c>
       <c r="J10" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K10" s="3">
         <v>10200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,53 +960,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11600</v>
+        <v>8600</v>
       </c>
       <c r="E12" s="3">
-        <v>12500</v>
+        <v>11100</v>
       </c>
       <c r="F12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O12" s="3">
         <v>9100</v>
       </c>
-      <c r="G12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,33 +1105,33 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>1900</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42400</v>
+        <v>42900</v>
       </c>
       <c r="E17" s="3">
-        <v>48300</v>
+        <v>40400</v>
       </c>
       <c r="F17" s="3">
-        <v>40500</v>
+        <v>46000</v>
       </c>
       <c r="G17" s="3">
-        <v>35100</v>
+        <v>38600</v>
       </c>
       <c r="H17" s="3">
-        <v>29400</v>
+        <v>33500</v>
       </c>
       <c r="I17" s="3">
-        <v>32500</v>
+        <v>28000</v>
       </c>
       <c r="J17" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K17" s="3">
         <v>25000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,53 +1289,56 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-26300</v>
+        <v>-23700</v>
       </c>
       <c r="E18" s="3">
-        <v>-26800</v>
+        <v>-25000</v>
       </c>
       <c r="F18" s="3">
-        <v>-18200</v>
+        <v>-25600</v>
       </c>
       <c r="G18" s="3">
-        <v>-14600</v>
+        <v>-17400</v>
       </c>
       <c r="H18" s="3">
-        <v>-15900</v>
+        <v>-13900</v>
       </c>
       <c r="I18" s="3">
-        <v>-13000</v>
+        <v>-15200</v>
       </c>
       <c r="J18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,53 +1377,54 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>2700</v>
-      </c>
       <c r="F20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2300</v>
-      </c>
       <c r="J20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-409500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-48600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,8 +1437,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1462,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1494,15 +1534,15 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1521,53 +1561,56 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25500</v>
+        <v>-32900</v>
       </c>
       <c r="E23" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="F23" s="3">
-        <v>-19000</v>
+        <v>-23000</v>
       </c>
       <c r="G23" s="3">
-        <v>-13500</v>
+        <v>-18100</v>
       </c>
       <c r="H23" s="3">
-        <v>-16800</v>
+        <v>-12800</v>
       </c>
       <c r="I23" s="3">
-        <v>-10700</v>
+        <v>-16000</v>
       </c>
       <c r="J23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-417400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-83300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25500</v>
+        <v>-32900</v>
       </c>
       <c r="E26" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="F26" s="3">
-        <v>-19000</v>
+        <v>-23000</v>
       </c>
       <c r="G26" s="3">
-        <v>-13500</v>
+        <v>-18100</v>
       </c>
       <c r="H26" s="3">
-        <v>-16800</v>
+        <v>-12800</v>
       </c>
       <c r="I26" s="3">
-        <v>-10700</v>
+        <v>-16000</v>
       </c>
       <c r="J26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-417400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-83300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,53 +1809,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25500</v>
+        <v>-32700</v>
       </c>
       <c r="E27" s="3">
-        <v>-23800</v>
+        <v>-24300</v>
       </c>
       <c r="F27" s="3">
-        <v>-18800</v>
+        <v>-22600</v>
       </c>
       <c r="G27" s="3">
-        <v>-13400</v>
+        <v>-18000</v>
       </c>
       <c r="H27" s="3">
-        <v>-16500</v>
+        <v>-12800</v>
       </c>
       <c r="I27" s="3">
-        <v>-10700</v>
+        <v>-15700</v>
       </c>
       <c r="J27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-417400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-83300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,53 +2119,56 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2700</v>
-      </c>
       <c r="F32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2300</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>409500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>48600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,53 +2181,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25500</v>
+        <v>-32700</v>
       </c>
       <c r="E33" s="3">
-        <v>-23800</v>
+        <v>-24300</v>
       </c>
       <c r="F33" s="3">
-        <v>-18800</v>
+        <v>-22600</v>
       </c>
       <c r="G33" s="3">
-        <v>-13400</v>
+        <v>-18000</v>
       </c>
       <c r="H33" s="3">
-        <v>-16500</v>
+        <v>-12800</v>
       </c>
       <c r="I33" s="3">
-        <v>-10700</v>
+        <v>-15700</v>
       </c>
       <c r="J33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-417400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-83300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,53 +2305,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25500</v>
+        <v>-32700</v>
       </c>
       <c r="E35" s="3">
-        <v>-23800</v>
+        <v>-24300</v>
       </c>
       <c r="F35" s="3">
-        <v>-18800</v>
+        <v>-22600</v>
       </c>
       <c r="G35" s="3">
-        <v>-13400</v>
+        <v>-18000</v>
       </c>
       <c r="H35" s="3">
-        <v>-16500</v>
+        <v>-12800</v>
       </c>
       <c r="I35" s="3">
-        <v>-10700</v>
+        <v>-15700</v>
       </c>
       <c r="J35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-417400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-83300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,44 +2484,45 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46600</v>
+        <v>45600</v>
       </c>
       <c r="E41" s="3">
-        <v>93300</v>
+        <v>44400</v>
       </c>
       <c r="F41" s="3">
-        <v>119000</v>
+        <v>89000</v>
       </c>
       <c r="G41" s="3">
-        <v>155800</v>
+        <v>113500</v>
       </c>
       <c r="H41" s="3">
-        <v>156100</v>
+        <v>148500</v>
       </c>
       <c r="I41" s="3">
-        <v>200900</v>
+        <v>148800</v>
       </c>
       <c r="J41" s="3">
+        <v>191500</v>
+      </c>
+      <c r="K41" s="3">
         <v>238800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>271700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,52 +2544,55 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35000</v>
+        <v>20200</v>
       </c>
       <c r="E42" s="3">
-        <v>22100</v>
+        <v>33400</v>
       </c>
       <c r="F42" s="3">
-        <v>27400</v>
+        <v>21100</v>
       </c>
       <c r="G42" s="3">
-        <v>20800</v>
+        <v>26100</v>
       </c>
       <c r="H42" s="3">
-        <v>46500</v>
+        <v>19800</v>
       </c>
       <c r="I42" s="3">
-        <v>20500</v>
+        <v>44400</v>
       </c>
       <c r="J42" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K42" s="3">
         <v>34100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2516,44 +2606,47 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59400</v>
+        <v>60200</v>
       </c>
       <c r="E43" s="3">
-        <v>56700</v>
+        <v>56600</v>
       </c>
       <c r="F43" s="3">
-        <v>53400</v>
+        <v>54100</v>
       </c>
       <c r="G43" s="3">
-        <v>38100</v>
+        <v>50900</v>
       </c>
       <c r="H43" s="3">
-        <v>32700</v>
+        <v>36400</v>
       </c>
       <c r="I43" s="3">
-        <v>30400</v>
+        <v>31200</v>
       </c>
       <c r="J43" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K43" s="3">
         <v>23800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,44 +2668,47 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6300</v>
+        <v>7700</v>
       </c>
       <c r="E44" s="3">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="F44" s="3">
-        <v>6100</v>
+        <v>5000</v>
       </c>
       <c r="G44" s="3">
-        <v>4800</v>
+        <v>5800</v>
       </c>
       <c r="H44" s="3">
-        <v>3800</v>
+        <v>4600</v>
       </c>
       <c r="I44" s="3">
         <v>3600</v>
       </c>
       <c r="J44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2634,44 +2730,47 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H45" s="3">
         <v>5200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>5700</v>
       </c>
       <c r="I45" s="3">
         <v>5400</v>
       </c>
       <c r="J45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,44 +2792,47 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>152500</v>
+        <v>137800</v>
       </c>
       <c r="E46" s="3">
-        <v>182100</v>
+        <v>145400</v>
       </c>
       <c r="F46" s="3">
-        <v>210200</v>
+        <v>173600</v>
       </c>
       <c r="G46" s="3">
-        <v>224900</v>
+        <v>200400</v>
       </c>
       <c r="H46" s="3">
-        <v>244800</v>
+        <v>214400</v>
       </c>
       <c r="I46" s="3">
-        <v>260800</v>
+        <v>233400</v>
       </c>
       <c r="J46" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K46" s="3">
         <v>305900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>304200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>66100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,31 +2854,34 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="E47" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="F47" s="3">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="G47" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="H47" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="I47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2700</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2790,8 +2895,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2811,44 +2916,47 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26200</v>
+        <v>28500</v>
       </c>
       <c r="E48" s="3">
-        <v>23700</v>
+        <v>25000</v>
       </c>
       <c r="F48" s="3">
-        <v>19900</v>
+        <v>22600</v>
       </c>
       <c r="G48" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="H48" s="3">
-        <v>19600</v>
+        <v>18400</v>
       </c>
       <c r="I48" s="3">
-        <v>19900</v>
+        <v>18700</v>
       </c>
       <c r="J48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K48" s="3">
         <v>19100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2870,43 +2978,46 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="3">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F49" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="G49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H49" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I49" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>800</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,44 +3164,47 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E52" s="3">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="F52" s="3">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H52" s="3">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="I52" s="3">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="J52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,44 +3288,47 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>194000</v>
+        <v>181400</v>
       </c>
       <c r="E54" s="3">
-        <v>221600</v>
+        <v>184900</v>
       </c>
       <c r="F54" s="3">
-        <v>241200</v>
+        <v>211300</v>
       </c>
       <c r="G54" s="3">
-        <v>255200</v>
+        <v>230000</v>
       </c>
       <c r="H54" s="3">
-        <v>275100</v>
+        <v>243300</v>
       </c>
       <c r="I54" s="3">
-        <v>287700</v>
+        <v>262200</v>
       </c>
       <c r="J54" s="3">
+        <v>274200</v>
+      </c>
+      <c r="K54" s="3">
         <v>328100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>323200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,44 +3400,45 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27400</v>
+        <v>29400</v>
       </c>
       <c r="E57" s="3">
-        <v>31100</v>
+        <v>26100</v>
       </c>
       <c r="F57" s="3">
-        <v>23100</v>
+        <v>29600</v>
       </c>
       <c r="G57" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="H57" s="3">
-        <v>23800</v>
+        <v>20000</v>
       </c>
       <c r="I57" s="3">
-        <v>21200</v>
+        <v>22700</v>
       </c>
       <c r="J57" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K57" s="3">
         <v>42400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,44 +3460,47 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7700</v>
+        <v>15600</v>
       </c>
       <c r="E58" s="3">
-        <v>5900</v>
+        <v>7400</v>
       </c>
       <c r="F58" s="3">
-        <v>6900</v>
+        <v>5600</v>
       </c>
       <c r="G58" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="H58" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="I58" s="3">
-        <v>11000</v>
+        <v>6600</v>
       </c>
       <c r="J58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K58" s="3">
         <v>10000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3388,44 +3522,47 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1300</v>
+        <v>3800</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
-        <v>2100</v>
-      </c>
       <c r="G59" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H59" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="I59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,44 +3584,47 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36400</v>
+        <v>48700</v>
       </c>
       <c r="E60" s="3">
-        <v>38700</v>
+        <v>34700</v>
       </c>
       <c r="F60" s="3">
-        <v>32200</v>
+        <v>36900</v>
       </c>
       <c r="G60" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="H60" s="3">
-        <v>33300</v>
+        <v>28600</v>
       </c>
       <c r="I60" s="3">
-        <v>33400</v>
+        <v>31700</v>
       </c>
       <c r="J60" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K60" s="3">
         <v>53300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>31300</v>
       </c>
       <c r="L60" s="3">
         <v>31300</v>
       </c>
       <c r="M60" s="3">
+        <v>31300</v>
+      </c>
+      <c r="N60" s="3">
         <v>32800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,44 +3646,47 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4400</v>
+        <v>6800</v>
       </c>
       <c r="E61" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="F61" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G61" s="3">
-        <v>5900</v>
+        <v>4600</v>
       </c>
       <c r="H61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K61" s="3">
         <v>6700</v>
       </c>
-      <c r="I61" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>6700</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>315200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>329400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3565,8 +3708,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3574,7 +3720,7 @@
         <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -3585,8 +3731,8 @@
       <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>1100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -3603,8 +3749,8 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,44 +3956,47 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42700</v>
+        <v>57300</v>
       </c>
       <c r="E66" s="3">
-        <v>45600</v>
+        <v>40700</v>
       </c>
       <c r="F66" s="3">
-        <v>39200</v>
+        <v>43400</v>
       </c>
       <c r="G66" s="3">
-        <v>38300</v>
+        <v>37400</v>
       </c>
       <c r="H66" s="3">
-        <v>42400</v>
+        <v>36500</v>
       </c>
       <c r="I66" s="3">
-        <v>40500</v>
+        <v>40400</v>
       </c>
       <c r="J66" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K66" s="3">
         <v>60000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>346600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>362100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,44 +4290,47 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-828800</v>
+        <v>-810900</v>
       </c>
       <c r="E72" s="3">
-        <v>-804000</v>
+        <v>-790000</v>
       </c>
       <c r="F72" s="3">
-        <v>-776700</v>
+        <v>-766400</v>
       </c>
       <c r="G72" s="3">
-        <v>-758600</v>
+        <v>-740400</v>
       </c>
       <c r="H72" s="3">
-        <v>-741000</v>
+        <v>-723100</v>
       </c>
       <c r="I72" s="3">
-        <v>-725100</v>
+        <v>-706300</v>
       </c>
       <c r="J72" s="3">
+        <v>-691100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-704100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-692500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-261500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-273300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,44 +4538,47 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>151300</v>
+        <v>124200</v>
       </c>
       <c r="E76" s="3">
-        <v>176100</v>
+        <v>144200</v>
       </c>
       <c r="F76" s="3">
-        <v>202100</v>
+        <v>167800</v>
       </c>
       <c r="G76" s="3">
-        <v>216900</v>
+        <v>192600</v>
       </c>
       <c r="H76" s="3">
-        <v>232800</v>
+        <v>206800</v>
       </c>
       <c r="I76" s="3">
-        <v>247200</v>
+        <v>221900</v>
       </c>
       <c r="J76" s="3">
+        <v>235600</v>
+      </c>
+      <c r="K76" s="3">
         <v>268100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>288200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-262100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-273800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,53 +4729,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25500</v>
+        <v>-32700</v>
       </c>
       <c r="E81" s="3">
-        <v>-23800</v>
+        <v>-24300</v>
       </c>
       <c r="F81" s="3">
-        <v>-18800</v>
+        <v>-22600</v>
       </c>
       <c r="G81" s="3">
-        <v>-13400</v>
+        <v>-18000</v>
       </c>
       <c r="H81" s="3">
-        <v>-16500</v>
+        <v>-12800</v>
       </c>
       <c r="I81" s="3">
-        <v>-10700</v>
+        <v>-15700</v>
       </c>
       <c r="J81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-417400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-83300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,8 +5187,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5017,8 +5234,8 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,8 +5275,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5099,8 +5320,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,8 +5459,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5276,8 +5506,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,8 +5793,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5594,8 +5840,8 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5653,8 +5902,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -5668,8 +5917,11 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5712,8 +5964,8 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>21100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>21900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J8" s="3">
         <v>19200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>15400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>20400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>21200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>19600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>18600</v>
       </c>
       <c r="K8" s="3">
         <v>16400</v>
@@ -819,25 +819,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="F9" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6600</v>
       </c>
-      <c r="H9" s="3">
-        <v>6400</v>
-      </c>
       <c r="I9" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J9" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="K9" s="3">
         <v>6200</v>
@@ -881,25 +881,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I10" s="3">
         <v>7800</v>
       </c>
-      <c r="E10" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7600</v>
-      </c>
       <c r="J10" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="K10" s="3">
         <v>10200</v>
@@ -967,25 +967,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="E12" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="F12" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G12" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="H12" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="I12" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="K12" s="3">
         <v>5600</v>
@@ -1236,25 +1236,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42900</v>
+        <v>44200</v>
       </c>
       <c r="E17" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="F17" s="3">
-        <v>46000</v>
+        <v>47500</v>
       </c>
       <c r="G17" s="3">
-        <v>38600</v>
+        <v>39800</v>
       </c>
       <c r="H17" s="3">
-        <v>33500</v>
+        <v>34600</v>
       </c>
       <c r="I17" s="3">
-        <v>28000</v>
+        <v>28900</v>
       </c>
       <c r="J17" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="K17" s="3">
         <v>25000</v>
@@ -1298,25 +1298,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-23700</v>
+        <v>-24400</v>
       </c>
       <c r="E18" s="3">
-        <v>-25000</v>
+        <v>-25800</v>
       </c>
       <c r="F18" s="3">
-        <v>-25600</v>
+        <v>-26400</v>
       </c>
       <c r="G18" s="3">
-        <v>-17400</v>
+        <v>-17900</v>
       </c>
       <c r="H18" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="I18" s="3">
-        <v>-15200</v>
+        <v>-15600</v>
       </c>
       <c r="J18" s="3">
-        <v>-12400</v>
+        <v>-12800</v>
       </c>
       <c r="K18" s="3">
         <v>-8600</v>
@@ -1384,25 +1384,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="E20" s="3">
         <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J20" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K20" s="3">
         <v>1600</v>
@@ -1570,25 +1570,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32900</v>
+        <v>-33900</v>
       </c>
       <c r="E23" s="3">
-        <v>-24300</v>
+        <v>-25100</v>
       </c>
       <c r="F23" s="3">
-        <v>-23000</v>
+        <v>-23700</v>
       </c>
       <c r="G23" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="H23" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I23" s="3">
-        <v>-16000</v>
+        <v>-16500</v>
       </c>
       <c r="J23" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="K23" s="3">
         <v>-7000</v>
@@ -1756,25 +1756,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32900</v>
+        <v>-33900</v>
       </c>
       <c r="E26" s="3">
-        <v>-24300</v>
+        <v>-25100</v>
       </c>
       <c r="F26" s="3">
-        <v>-23000</v>
+        <v>-23700</v>
       </c>
       <c r="G26" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="H26" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I26" s="3">
-        <v>-16000</v>
+        <v>-16500</v>
       </c>
       <c r="J26" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="K26" s="3">
         <v>-7000</v>
@@ -1818,25 +1818,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32700</v>
+        <v>-33800</v>
       </c>
       <c r="E27" s="3">
-        <v>-24300</v>
+        <v>-25000</v>
       </c>
       <c r="F27" s="3">
-        <v>-22600</v>
+        <v>-23400</v>
       </c>
       <c r="G27" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H27" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I27" s="3">
-        <v>-15700</v>
+        <v>-16200</v>
       </c>
       <c r="J27" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="K27" s="3">
         <v>-7000</v>
@@ -2128,25 +2128,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="E32" s="3">
         <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J32" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K32" s="3">
         <v>-1600</v>
@@ -2190,25 +2190,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32700</v>
+        <v>-33800</v>
       </c>
       <c r="E33" s="3">
-        <v>-24300</v>
+        <v>-25000</v>
       </c>
       <c r="F33" s="3">
-        <v>-22600</v>
+        <v>-23400</v>
       </c>
       <c r="G33" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H33" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I33" s="3">
-        <v>-15700</v>
+        <v>-16200</v>
       </c>
       <c r="J33" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="K33" s="3">
         <v>-7000</v>
@@ -2314,25 +2314,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32700</v>
+        <v>-33800</v>
       </c>
       <c r="E35" s="3">
-        <v>-24300</v>
+        <v>-25000</v>
       </c>
       <c r="F35" s="3">
-        <v>-22600</v>
+        <v>-23400</v>
       </c>
       <c r="G35" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H35" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I35" s="3">
-        <v>-15700</v>
+        <v>-16200</v>
       </c>
       <c r="J35" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="K35" s="3">
         <v>-7000</v>
@@ -2491,25 +2491,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45600</v>
+        <v>47000</v>
       </c>
       <c r="E41" s="3">
-        <v>44400</v>
+        <v>45900</v>
       </c>
       <c r="F41" s="3">
-        <v>89000</v>
+        <v>91800</v>
       </c>
       <c r="G41" s="3">
-        <v>113500</v>
+        <v>117100</v>
       </c>
       <c r="H41" s="3">
-        <v>148500</v>
+        <v>153200</v>
       </c>
       <c r="I41" s="3">
-        <v>148800</v>
+        <v>153500</v>
       </c>
       <c r="J41" s="3">
-        <v>191500</v>
+        <v>197600</v>
       </c>
       <c r="K41" s="3">
         <v>238800</v>
@@ -2553,25 +2553,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="E42" s="3">
-        <v>33400</v>
+        <v>34400</v>
       </c>
       <c r="F42" s="3">
-        <v>21100</v>
+        <v>21800</v>
       </c>
       <c r="G42" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="H42" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="I42" s="3">
-        <v>44400</v>
+        <v>45800</v>
       </c>
       <c r="J42" s="3">
-        <v>19500</v>
+        <v>20100</v>
       </c>
       <c r="K42" s="3">
         <v>34100</v>
@@ -2615,25 +2615,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60200</v>
+        <v>62100</v>
       </c>
       <c r="E43" s="3">
-        <v>56600</v>
+        <v>58400</v>
       </c>
       <c r="F43" s="3">
-        <v>54100</v>
+        <v>55800</v>
       </c>
       <c r="G43" s="3">
-        <v>50900</v>
+        <v>52500</v>
       </c>
       <c r="H43" s="3">
-        <v>36400</v>
+        <v>37500</v>
       </c>
       <c r="I43" s="3">
-        <v>31200</v>
+        <v>32200</v>
       </c>
       <c r="J43" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="K43" s="3">
         <v>23800</v>
@@ -2677,25 +2677,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E44" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G44" s="3">
         <v>6000</v>
       </c>
-      <c r="F44" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5800</v>
-      </c>
       <c r="H44" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J44" s="3">
         <v>3600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3500</v>
       </c>
       <c r="K44" s="3">
         <v>3400</v>
@@ -2739,25 +2739,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E45" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F45" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G45" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H45" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I45" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="J45" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="K45" s="3">
         <v>5900</v>
@@ -2801,25 +2801,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>137800</v>
+        <v>142100</v>
       </c>
       <c r="E46" s="3">
-        <v>145400</v>
+        <v>150000</v>
       </c>
       <c r="F46" s="3">
-        <v>173600</v>
+        <v>179100</v>
       </c>
       <c r="G46" s="3">
-        <v>200400</v>
+        <v>206800</v>
       </c>
       <c r="H46" s="3">
-        <v>214400</v>
+        <v>221200</v>
       </c>
       <c r="I46" s="3">
-        <v>233400</v>
+        <v>240800</v>
       </c>
       <c r="J46" s="3">
-        <v>248600</v>
+        <v>256500</v>
       </c>
       <c r="K46" s="3">
         <v>305900</v>
@@ -2863,25 +2863,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E47" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F47" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="G47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H47" s="3">
         <v>5200</v>
       </c>
-      <c r="H47" s="3">
-        <v>5100</v>
-      </c>
       <c r="I47" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="J47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2925,25 +2925,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="E48" s="3">
-        <v>25000</v>
+        <v>25800</v>
       </c>
       <c r="F48" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="G48" s="3">
+        <v>19600</v>
+      </c>
+      <c r="H48" s="3">
         <v>19000</v>
       </c>
-      <c r="H48" s="3">
-        <v>18400</v>
-      </c>
       <c r="I48" s="3">
-        <v>18700</v>
+        <v>19300</v>
       </c>
       <c r="J48" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="K48" s="3">
         <v>19100</v>
@@ -2987,25 +2987,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="F49" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G49" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H49" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I49" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K49" s="3">
         <v>1400</v>
@@ -3173,25 +3173,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E52" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F52" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I52" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J52" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K52" s="3">
         <v>1700</v>
@@ -3297,25 +3297,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>181400</v>
+        <v>187200</v>
       </c>
       <c r="E54" s="3">
-        <v>184900</v>
+        <v>190800</v>
       </c>
       <c r="F54" s="3">
-        <v>211300</v>
+        <v>218000</v>
       </c>
       <c r="G54" s="3">
-        <v>230000</v>
+        <v>237300</v>
       </c>
       <c r="H54" s="3">
-        <v>243300</v>
+        <v>251000</v>
       </c>
       <c r="I54" s="3">
-        <v>262200</v>
+        <v>270600</v>
       </c>
       <c r="J54" s="3">
-        <v>274200</v>
+        <v>282900</v>
       </c>
       <c r="K54" s="3">
         <v>328100</v>
@@ -3407,25 +3407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="E57" s="3">
-        <v>26100</v>
+        <v>27000</v>
       </c>
       <c r="F57" s="3">
-        <v>29600</v>
+        <v>30600</v>
       </c>
       <c r="G57" s="3">
-        <v>22000</v>
+        <v>22700</v>
       </c>
       <c r="H57" s="3">
-        <v>20000</v>
+        <v>20700</v>
       </c>
       <c r="I57" s="3">
-        <v>22700</v>
+        <v>23400</v>
       </c>
       <c r="J57" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="K57" s="3">
         <v>42400</v>
@@ -3469,25 +3469,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="E58" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F58" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G58" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="H58" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I58" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J58" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="K58" s="3">
         <v>10000</v>
@@ -3531,7 +3531,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
@@ -3540,13 +3540,13 @@
         <v>1700</v>
       </c>
       <c r="G59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
@@ -3593,25 +3593,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48700</v>
+        <v>50300</v>
       </c>
       <c r="E60" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="F60" s="3">
-        <v>36900</v>
+        <v>38100</v>
       </c>
       <c r="G60" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="H60" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="I60" s="3">
-        <v>31700</v>
+        <v>32800</v>
       </c>
       <c r="J60" s="3">
-        <v>31900</v>
+        <v>32900</v>
       </c>
       <c r="K60" s="3">
         <v>53300</v>
@@ -3655,25 +3655,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E61" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
-        <v>4600</v>
-      </c>
       <c r="H61" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="I61" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="J61" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="K61" s="3">
         <v>6700</v>
@@ -3720,7 +3720,7 @@
         <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -3729,7 +3729,7 @@
         <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
@@ -3965,25 +3965,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57300</v>
+        <v>59100</v>
       </c>
       <c r="E66" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="F66" s="3">
-        <v>43400</v>
+        <v>44800</v>
       </c>
       <c r="G66" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="H66" s="3">
-        <v>36500</v>
+        <v>37600</v>
       </c>
       <c r="I66" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="J66" s="3">
-        <v>38600</v>
+        <v>39800</v>
       </c>
       <c r="K66" s="3">
         <v>60000</v>
@@ -4299,25 +4299,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-810900</v>
+        <v>-836700</v>
       </c>
       <c r="E72" s="3">
-        <v>-790000</v>
+        <v>-815100</v>
       </c>
       <c r="F72" s="3">
-        <v>-766400</v>
+        <v>-790700</v>
       </c>
       <c r="G72" s="3">
-        <v>-740400</v>
+        <v>-763900</v>
       </c>
       <c r="H72" s="3">
-        <v>-723100</v>
+        <v>-746100</v>
       </c>
       <c r="I72" s="3">
-        <v>-706300</v>
+        <v>-728800</v>
       </c>
       <c r="J72" s="3">
-        <v>-691100</v>
+        <v>-713100</v>
       </c>
       <c r="K72" s="3">
         <v>-704100</v>
@@ -4547,25 +4547,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>124200</v>
+        <v>128100</v>
       </c>
       <c r="E76" s="3">
-        <v>144200</v>
+        <v>148800</v>
       </c>
       <c r="F76" s="3">
-        <v>167800</v>
+        <v>173100</v>
       </c>
       <c r="G76" s="3">
-        <v>192600</v>
+        <v>198700</v>
       </c>
       <c r="H76" s="3">
-        <v>206800</v>
+        <v>213300</v>
       </c>
       <c r="I76" s="3">
-        <v>221900</v>
+        <v>228900</v>
       </c>
       <c r="J76" s="3">
-        <v>235600</v>
+        <v>243100</v>
       </c>
       <c r="K76" s="3">
         <v>268100</v>
@@ -4738,25 +4738,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32700</v>
+        <v>-33800</v>
       </c>
       <c r="E81" s="3">
-        <v>-24300</v>
+        <v>-25000</v>
       </c>
       <c r="F81" s="3">
-        <v>-22600</v>
+        <v>-23400</v>
       </c>
       <c r="G81" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H81" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I81" s="3">
-        <v>-15700</v>
+        <v>-16200</v>
       </c>
       <c r="J81" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="K81" s="3">
         <v>-7000</v>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="E8" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="F8" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="G8" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="H8" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="I8" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="J8" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="K8" s="3">
         <v>16400</v>
@@ -819,25 +819,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E9" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F9" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G9" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H9" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="I9" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J9" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="K9" s="3">
         <v>6200</v>
@@ -884,22 +884,22 @@
         <v>8000</v>
       </c>
       <c r="E10" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="F10" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="G10" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="H10" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="I10" s="3">
         <v>7800</v>
       </c>
       <c r="J10" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="K10" s="3">
         <v>10200</v>
@@ -967,25 +967,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G12" s="3">
         <v>8900</v>
       </c>
-      <c r="E12" s="3">
-        <v>11400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9000</v>
-      </c>
       <c r="H12" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I12" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J12" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="K12" s="3">
         <v>5600</v>
@@ -1236,25 +1236,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44200</v>
+        <v>43800</v>
       </c>
       <c r="E17" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="F17" s="3">
-        <v>47500</v>
+        <v>47000</v>
       </c>
       <c r="G17" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="H17" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="I17" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="J17" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="K17" s="3">
         <v>25000</v>
@@ -1298,25 +1298,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-24400</v>
+        <v>-24200</v>
       </c>
       <c r="E18" s="3">
-        <v>-25800</v>
+        <v>-25600</v>
       </c>
       <c r="F18" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="G18" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="H18" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="I18" s="3">
-        <v>-15600</v>
+        <v>-15500</v>
       </c>
       <c r="J18" s="3">
-        <v>-12800</v>
+        <v>-12600</v>
       </c>
       <c r="K18" s="3">
         <v>-8600</v>
@@ -1384,25 +1384,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="E20" s="3">
         <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="3">
         <v>-900</v>
       </c>
       <c r="J20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K20" s="3">
         <v>1600</v>
@@ -1570,25 +1570,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33900</v>
+        <v>-33600</v>
       </c>
       <c r="E23" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="F23" s="3">
-        <v>-23700</v>
+        <v>-23500</v>
       </c>
       <c r="G23" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="H23" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="I23" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="J23" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K23" s="3">
         <v>-7000</v>
@@ -1756,25 +1756,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33900</v>
+        <v>-33600</v>
       </c>
       <c r="E26" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="F26" s="3">
-        <v>-23700</v>
+        <v>-23500</v>
       </c>
       <c r="G26" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="H26" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="I26" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="J26" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K26" s="3">
         <v>-7000</v>
@@ -1818,25 +1818,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="E27" s="3">
-        <v>-25000</v>
+        <v>-24800</v>
       </c>
       <c r="F27" s="3">
-        <v>-23400</v>
+        <v>-23100</v>
       </c>
       <c r="G27" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="H27" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="I27" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="J27" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K27" s="3">
         <v>-7000</v>
@@ -2128,25 +2128,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="E32" s="3">
         <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I32" s="3">
         <v>900</v>
       </c>
       <c r="J32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K32" s="3">
         <v>-1600</v>
@@ -2190,25 +2190,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="E33" s="3">
-        <v>-25000</v>
+        <v>-24800</v>
       </c>
       <c r="F33" s="3">
-        <v>-23400</v>
+        <v>-23100</v>
       </c>
       <c r="G33" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="H33" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="I33" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="J33" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K33" s="3">
         <v>-7000</v>
@@ -2314,25 +2314,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="E35" s="3">
-        <v>-25000</v>
+        <v>-24800</v>
       </c>
       <c r="F35" s="3">
-        <v>-23400</v>
+        <v>-23100</v>
       </c>
       <c r="G35" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="H35" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="I35" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="J35" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K35" s="3">
         <v>-7000</v>
@@ -2491,25 +2491,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47000</v>
+        <v>46600</v>
       </c>
       <c r="E41" s="3">
-        <v>45900</v>
+        <v>45400</v>
       </c>
       <c r="F41" s="3">
-        <v>91800</v>
+        <v>90800</v>
       </c>
       <c r="G41" s="3">
-        <v>117100</v>
+        <v>115900</v>
       </c>
       <c r="H41" s="3">
-        <v>153200</v>
+        <v>151600</v>
       </c>
       <c r="I41" s="3">
-        <v>153500</v>
+        <v>152000</v>
       </c>
       <c r="J41" s="3">
-        <v>197600</v>
+        <v>195600</v>
       </c>
       <c r="K41" s="3">
         <v>238800</v>
@@ -2553,25 +2553,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="E42" s="3">
-        <v>34400</v>
+        <v>34100</v>
       </c>
       <c r="F42" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="G42" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="H42" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="I42" s="3">
-        <v>45800</v>
+        <v>45300</v>
       </c>
       <c r="J42" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="K42" s="3">
         <v>34100</v>
@@ -2615,25 +2615,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62100</v>
+        <v>61400</v>
       </c>
       <c r="E43" s="3">
-        <v>58400</v>
+        <v>57800</v>
       </c>
       <c r="F43" s="3">
-        <v>55800</v>
+        <v>55200</v>
       </c>
       <c r="G43" s="3">
-        <v>52500</v>
+        <v>52000</v>
       </c>
       <c r="H43" s="3">
-        <v>37500</v>
+        <v>37100</v>
       </c>
       <c r="I43" s="3">
-        <v>32200</v>
+        <v>31900</v>
       </c>
       <c r="J43" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="K43" s="3">
         <v>23800</v>
@@ -2677,16 +2677,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E44" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F44" s="3">
         <v>5100</v>
       </c>
       <c r="G44" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H44" s="3">
         <v>4700</v>
@@ -2695,7 +2695,7 @@
         <v>3700</v>
       </c>
       <c r="J44" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K44" s="3">
         <v>3400</v>
@@ -2739,13 +2739,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E45" s="3">
         <v>5100</v>
       </c>
       <c r="F45" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G45" s="3">
         <v>4300</v>
@@ -2754,10 +2754,10 @@
         <v>5300</v>
       </c>
       <c r="I45" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J45" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="K45" s="3">
         <v>5900</v>
@@ -2801,25 +2801,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>142100</v>
+        <v>140700</v>
       </c>
       <c r="E46" s="3">
-        <v>150000</v>
+        <v>148500</v>
       </c>
       <c r="F46" s="3">
-        <v>179100</v>
+        <v>177300</v>
       </c>
       <c r="G46" s="3">
-        <v>206800</v>
+        <v>204700</v>
       </c>
       <c r="H46" s="3">
-        <v>221200</v>
+        <v>218900</v>
       </c>
       <c r="I46" s="3">
-        <v>240800</v>
+        <v>238300</v>
       </c>
       <c r="J46" s="3">
-        <v>256500</v>
+        <v>253900</v>
       </c>
       <c r="K46" s="3">
         <v>305900</v>
@@ -2863,10 +2863,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E47" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F47" s="3">
         <v>7100</v>
@@ -2878,7 +2878,7 @@
         <v>5200</v>
       </c>
       <c r="I47" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J47" s="3">
         <v>2800</v>
@@ -2925,25 +2925,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="E48" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="F48" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="G48" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="H48" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="I48" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="J48" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="K48" s="3">
         <v>19100</v>
@@ -2990,13 +2990,13 @@
         <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F49" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H49" s="3">
         <v>2200</v>
@@ -3005,7 +3005,7 @@
         <v>2000</v>
       </c>
       <c r="J49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K49" s="3">
         <v>1400</v>
@@ -3176,19 +3176,19 @@
         <v>4500</v>
       </c>
       <c r="E52" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F52" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G52" s="3">
         <v>3400</v>
       </c>
       <c r="H52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I52" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J52" s="3">
         <v>2200</v>
@@ -3297,25 +3297,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>187200</v>
+        <v>185300</v>
       </c>
       <c r="E54" s="3">
-        <v>190800</v>
+        <v>188900</v>
       </c>
       <c r="F54" s="3">
-        <v>218000</v>
+        <v>215700</v>
       </c>
       <c r="G54" s="3">
-        <v>237300</v>
+        <v>234800</v>
       </c>
       <c r="H54" s="3">
-        <v>251000</v>
+        <v>248400</v>
       </c>
       <c r="I54" s="3">
-        <v>270600</v>
+        <v>267800</v>
       </c>
       <c r="J54" s="3">
-        <v>282900</v>
+        <v>280000</v>
       </c>
       <c r="K54" s="3">
         <v>328100</v>
@@ -3407,25 +3407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F57" s="3">
         <v>30300</v>
       </c>
-      <c r="E57" s="3">
-        <v>27000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>30600</v>
-      </c>
       <c r="G57" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="H57" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="I57" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="J57" s="3">
-        <v>20900</v>
+        <v>20600</v>
       </c>
       <c r="K57" s="3">
         <v>42400</v>
@@ -3469,25 +3469,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="E58" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="F58" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G58" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H58" s="3">
         <v>6700</v>
       </c>
       <c r="I58" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J58" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="K58" s="3">
         <v>10000</v>
@@ -3546,7 +3546,7 @@
         <v>2100</v>
       </c>
       <c r="I59" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
@@ -3593,25 +3593,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="E60" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="F60" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="G60" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="H60" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="I60" s="3">
-        <v>32800</v>
+        <v>32400</v>
       </c>
       <c r="J60" s="3">
-        <v>32900</v>
+        <v>32500</v>
       </c>
       <c r="K60" s="3">
         <v>53300</v>
@@ -3655,25 +3655,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E61" s="3">
         <v>4300</v>
       </c>
       <c r="F61" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G61" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H61" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="I61" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="J61" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K61" s="3">
         <v>6700</v>
@@ -3965,25 +3965,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="E66" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="F66" s="3">
-        <v>44800</v>
+        <v>44400</v>
       </c>
       <c r="G66" s="3">
-        <v>38500</v>
+        <v>38100</v>
       </c>
       <c r="H66" s="3">
-        <v>37600</v>
+        <v>37200</v>
       </c>
       <c r="I66" s="3">
-        <v>41700</v>
+        <v>41200</v>
       </c>
       <c r="J66" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="K66" s="3">
         <v>60000</v>
@@ -4299,25 +4299,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-836700</v>
+        <v>-828100</v>
       </c>
       <c r="E72" s="3">
-        <v>-815100</v>
+        <v>-806700</v>
       </c>
       <c r="F72" s="3">
-        <v>-790700</v>
+        <v>-782600</v>
       </c>
       <c r="G72" s="3">
-        <v>-763900</v>
+        <v>-756100</v>
       </c>
       <c r="H72" s="3">
-        <v>-746100</v>
+        <v>-738500</v>
       </c>
       <c r="I72" s="3">
-        <v>-728800</v>
+        <v>-721300</v>
       </c>
       <c r="J72" s="3">
-        <v>-713100</v>
+        <v>-705800</v>
       </c>
       <c r="K72" s="3">
         <v>-704100</v>
@@ -4547,25 +4547,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>128100</v>
+        <v>126800</v>
       </c>
       <c r="E76" s="3">
-        <v>148800</v>
+        <v>147300</v>
       </c>
       <c r="F76" s="3">
-        <v>173100</v>
+        <v>171400</v>
       </c>
       <c r="G76" s="3">
-        <v>198700</v>
+        <v>196700</v>
       </c>
       <c r="H76" s="3">
-        <v>213300</v>
+        <v>211200</v>
       </c>
       <c r="I76" s="3">
-        <v>228900</v>
+        <v>226600</v>
       </c>
       <c r="J76" s="3">
-        <v>243100</v>
+        <v>240600</v>
       </c>
       <c r="K76" s="3">
         <v>268100</v>
@@ -4738,25 +4738,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33800</v>
+        <v>-33400</v>
       </c>
       <c r="E81" s="3">
-        <v>-25000</v>
+        <v>-24800</v>
       </c>
       <c r="F81" s="3">
-        <v>-23400</v>
+        <v>-23100</v>
       </c>
       <c r="G81" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="H81" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="I81" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="J81" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K81" s="3">
         <v>-7000</v>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
   <si>
     <t>GTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,56 +752,59 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>19600</v>
+        <v>89700</v>
       </c>
       <c r="E8" s="3">
-        <v>15700</v>
+        <v>19000</v>
       </c>
       <c r="F8" s="3">
-        <v>20900</v>
+        <v>15200</v>
       </c>
       <c r="G8" s="3">
-        <v>21700</v>
+        <v>20200</v>
       </c>
       <c r="H8" s="3">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="I8" s="3">
-        <v>13100</v>
+        <v>19400</v>
       </c>
       <c r="J8" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K8" s="3">
         <v>19000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,55 +817,58 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11600</v>
+        <v>50900</v>
       </c>
       <c r="E9" s="3">
-        <v>6900</v>
+        <v>11300</v>
       </c>
       <c r="F9" s="3">
-        <v>9000</v>
+        <v>6700</v>
       </c>
       <c r="G9" s="3">
-        <v>6700</v>
+        <v>8700</v>
       </c>
       <c r="H9" s="3">
         <v>6500</v>
       </c>
       <c r="I9" s="3">
-        <v>5300</v>
+        <v>6300</v>
       </c>
       <c r="J9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K9" s="3">
         <v>7100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18700</v>
-      </c>
-      <c r="P9" s="3">
-        <v>5800</v>
       </c>
       <c r="Q9" s="3">
         <v>5800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>5800</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
@@ -875,56 +882,59 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8000</v>
+        <v>38800</v>
       </c>
       <c r="E10" s="3">
-        <v>8700</v>
+        <v>7700</v>
       </c>
       <c r="F10" s="3">
-        <v>11900</v>
+        <v>8500</v>
       </c>
       <c r="G10" s="3">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="H10" s="3">
-        <v>13400</v>
+        <v>14500</v>
       </c>
       <c r="I10" s="3">
-        <v>7800</v>
+        <v>13000</v>
       </c>
       <c r="J10" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K10" s="3">
         <v>12000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,56 +974,57 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8800</v>
+        <v>40000</v>
       </c>
       <c r="E12" s="3">
-        <v>11300</v>
+        <v>8500</v>
       </c>
       <c r="F12" s="3">
-        <v>12100</v>
+        <v>11000</v>
       </c>
       <c r="G12" s="3">
-        <v>8900</v>
+        <v>11800</v>
       </c>
       <c r="H12" s="3">
-        <v>8000</v>
+        <v>8600</v>
       </c>
       <c r="I12" s="3">
-        <v>7100</v>
+        <v>7700</v>
       </c>
       <c r="J12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,33 +1128,33 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,56 +1256,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43800</v>
+        <v>186400</v>
       </c>
       <c r="E17" s="3">
-        <v>41300</v>
+        <v>42400</v>
       </c>
       <c r="F17" s="3">
-        <v>47000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="3">
-        <v>39400</v>
+        <v>45600</v>
       </c>
       <c r="H17" s="3">
-        <v>34200</v>
+        <v>38200</v>
       </c>
       <c r="I17" s="3">
-        <v>28600</v>
+        <v>33200</v>
       </c>
       <c r="J17" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K17" s="3">
         <v>31700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,56 +1319,59 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-24200</v>
+        <v>-96700</v>
       </c>
       <c r="E18" s="3">
-        <v>-25600</v>
+        <v>-23400</v>
       </c>
       <c r="F18" s="3">
-        <v>-26100</v>
+        <v>-24800</v>
       </c>
       <c r="G18" s="3">
-        <v>-17800</v>
+        <v>-25300</v>
       </c>
       <c r="H18" s="3">
-        <v>-14200</v>
+        <v>-17200</v>
       </c>
       <c r="I18" s="3">
-        <v>-15500</v>
+        <v>-13800</v>
       </c>
       <c r="J18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,56 +1411,57 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9400</v>
+        <v>-15000</v>
       </c>
       <c r="E20" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-900</v>
-      </c>
       <c r="J20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-409500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-48600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,8 +1474,11 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1537,15 +1577,15 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,56 +1604,59 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33600</v>
+        <v>-111700</v>
       </c>
       <c r="E23" s="3">
-        <v>-24900</v>
+        <v>-32500</v>
       </c>
       <c r="F23" s="3">
-        <v>-23500</v>
+        <v>-24100</v>
       </c>
       <c r="G23" s="3">
-        <v>-18500</v>
+        <v>-22800</v>
       </c>
       <c r="H23" s="3">
-        <v>-13100</v>
+        <v>-17900</v>
       </c>
       <c r="I23" s="3">
-        <v>-16400</v>
+        <v>-12700</v>
       </c>
       <c r="J23" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-417400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-83300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,56 +1799,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33600</v>
+        <v>-111700</v>
       </c>
       <c r="E26" s="3">
-        <v>-24900</v>
+        <v>-32500</v>
       </c>
       <c r="F26" s="3">
-        <v>-23500</v>
+        <v>-24100</v>
       </c>
       <c r="G26" s="3">
-        <v>-18500</v>
+        <v>-22800</v>
       </c>
       <c r="H26" s="3">
-        <v>-13100</v>
+        <v>-17900</v>
       </c>
       <c r="I26" s="3">
-        <v>-16400</v>
+        <v>-12700</v>
       </c>
       <c r="J26" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-417400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-83300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,56 +1864,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33400</v>
+        <v>-111400</v>
       </c>
       <c r="E27" s="3">
-        <v>-24800</v>
+        <v>-32400</v>
       </c>
       <c r="F27" s="3">
-        <v>-23100</v>
+        <v>-24000</v>
       </c>
       <c r="G27" s="3">
-        <v>-18300</v>
+        <v>-22400</v>
       </c>
       <c r="H27" s="3">
-        <v>-13100</v>
+        <v>-17800</v>
       </c>
       <c r="I27" s="3">
-        <v>-16000</v>
+        <v>-12700</v>
       </c>
       <c r="J27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-417400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-83300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,56 +2189,59 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="E32" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
-        <v>900</v>
-      </c>
       <c r="J32" s="3">
+        <v>800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>409500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>48600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,56 +2254,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33400</v>
+        <v>-111400</v>
       </c>
       <c r="E33" s="3">
-        <v>-24800</v>
+        <v>-32400</v>
       </c>
       <c r="F33" s="3">
-        <v>-23100</v>
+        <v>-24000</v>
       </c>
       <c r="G33" s="3">
-        <v>-18300</v>
+        <v>-22400</v>
       </c>
       <c r="H33" s="3">
-        <v>-13100</v>
+        <v>-17800</v>
       </c>
       <c r="I33" s="3">
-        <v>-16000</v>
+        <v>-12700</v>
       </c>
       <c r="J33" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-417400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-83300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,56 +2384,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33400</v>
+        <v>-111400</v>
       </c>
       <c r="E35" s="3">
-        <v>-24800</v>
+        <v>-32400</v>
       </c>
       <c r="F35" s="3">
-        <v>-23100</v>
+        <v>-24000</v>
       </c>
       <c r="G35" s="3">
-        <v>-18300</v>
+        <v>-22400</v>
       </c>
       <c r="H35" s="3">
-        <v>-13100</v>
+        <v>-17800</v>
       </c>
       <c r="I35" s="3">
-        <v>-16000</v>
+        <v>-12700</v>
       </c>
       <c r="J35" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-417400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-83300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,47 +2571,48 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46600</v>
+        <v>24300</v>
       </c>
       <c r="E41" s="3">
-        <v>45400</v>
+        <v>45100</v>
       </c>
       <c r="F41" s="3">
-        <v>90800</v>
+        <v>44000</v>
       </c>
       <c r="G41" s="3">
-        <v>115900</v>
+        <v>88000</v>
       </c>
       <c r="H41" s="3">
-        <v>151600</v>
+        <v>112300</v>
       </c>
       <c r="I41" s="3">
-        <v>152000</v>
+        <v>147000</v>
       </c>
       <c r="J41" s="3">
+        <v>147300</v>
+      </c>
+      <c r="K41" s="3">
         <v>195600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>238800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>271700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,55 +2634,58 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20600</v>
+        <v>21700</v>
       </c>
       <c r="E42" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>33000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>25800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K42" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L42" s="3">
         <v>34100</v>
       </c>
-      <c r="F42" s="3">
-        <v>21500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>26600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>20200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>45300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>19900</v>
-      </c>
-      <c r="K42" s="3">
-        <v>34100</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2609,47 +2699,50 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61400</v>
+        <v>44600</v>
       </c>
       <c r="E43" s="3">
-        <v>57800</v>
+        <v>59500</v>
       </c>
       <c r="F43" s="3">
-        <v>55200</v>
+        <v>56000</v>
       </c>
       <c r="G43" s="3">
-        <v>52000</v>
+        <v>53500</v>
       </c>
       <c r="H43" s="3">
-        <v>37100</v>
+        <v>50400</v>
       </c>
       <c r="I43" s="3">
-        <v>31900</v>
+        <v>36000</v>
       </c>
       <c r="J43" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K43" s="3">
         <v>29600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2671,47 +2764,50 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="E44" s="3">
-        <v>6100</v>
+        <v>7600</v>
       </c>
       <c r="F44" s="3">
-        <v>5100</v>
+        <v>5900</v>
       </c>
       <c r="G44" s="3">
-        <v>5900</v>
+        <v>4900</v>
       </c>
       <c r="H44" s="3">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="I44" s="3">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="J44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2800</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,47 +2829,50 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4200</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5500</v>
-      </c>
       <c r="J45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,47 +2894,50 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>140700</v>
+        <v>97700</v>
       </c>
       <c r="E46" s="3">
-        <v>148500</v>
+        <v>136400</v>
       </c>
       <c r="F46" s="3">
-        <v>177300</v>
+        <v>143900</v>
       </c>
       <c r="G46" s="3">
-        <v>204700</v>
+        <v>171800</v>
       </c>
       <c r="H46" s="3">
-        <v>218900</v>
+        <v>198400</v>
       </c>
       <c r="I46" s="3">
-        <v>238300</v>
+        <v>212200</v>
       </c>
       <c r="J46" s="3">
+        <v>231000</v>
+      </c>
+      <c r="K46" s="3">
         <v>253900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>305900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>304200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>66100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2866,26 +2971,26 @@
         <v>7000</v>
       </c>
       <c r="E47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G47" s="3">
         <v>6900</v>
       </c>
-      <c r="F47" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>5300</v>
-      </c>
       <c r="H47" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="I47" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="J47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3003,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2919,47 +3024,50 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29100</v>
+        <v>24500</v>
       </c>
       <c r="E48" s="3">
-        <v>25500</v>
+        <v>28300</v>
       </c>
       <c r="F48" s="3">
-        <v>23100</v>
+        <v>24700</v>
       </c>
       <c r="G48" s="3">
-        <v>19400</v>
+        <v>22400</v>
       </c>
       <c r="H48" s="3">
         <v>18800</v>
       </c>
       <c r="I48" s="3">
+        <v>18200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="L48" s="3">
         <v>19100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="N48" s="3">
+        <v>18600</v>
+      </c>
+      <c r="O48" s="3">
         <v>19400</v>
       </c>
-      <c r="K48" s="3">
-        <v>19100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>16600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>18600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>19400</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,46 +3089,49 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="F49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="H49" s="3">
-        <v>2200</v>
-      </c>
       <c r="I49" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>800</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,47 +3284,50 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F52" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="G52" s="3">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="H52" s="3">
         <v>3300</v>
       </c>
       <c r="I52" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="J52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,47 +3414,50 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>185300</v>
+        <v>134400</v>
       </c>
       <c r="E54" s="3">
-        <v>188900</v>
+        <v>179600</v>
       </c>
       <c r="F54" s="3">
-        <v>215700</v>
+        <v>183100</v>
       </c>
       <c r="G54" s="3">
-        <v>234800</v>
+        <v>209100</v>
       </c>
       <c r="H54" s="3">
-        <v>248400</v>
+        <v>227600</v>
       </c>
       <c r="I54" s="3">
-        <v>267800</v>
+        <v>240800</v>
       </c>
       <c r="J54" s="3">
+        <v>259600</v>
+      </c>
+      <c r="K54" s="3">
         <v>280000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>328100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>323200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>88300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,47 +3531,48 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30000</v>
+        <v>34300</v>
       </c>
       <c r="E57" s="3">
-        <v>26700</v>
+        <v>29100</v>
       </c>
       <c r="F57" s="3">
-        <v>30300</v>
+        <v>25900</v>
       </c>
       <c r="G57" s="3">
-        <v>22500</v>
+        <v>29300</v>
       </c>
       <c r="H57" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>20600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>42400</v>
+      </c>
+      <c r="M57" s="3">
         <v>20500</v>
       </c>
-      <c r="I57" s="3">
-        <v>23200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>20600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>42400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>20500</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,47 +3594,50 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15900</v>
+        <v>18100</v>
       </c>
       <c r="E58" s="3">
-        <v>7500</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3">
-        <v>5700</v>
+        <v>7300</v>
       </c>
       <c r="G58" s="3">
-        <v>6700</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I58" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="J58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K58" s="3">
         <v>10700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3525,47 +3659,50 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3900</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
-        <v>1700</v>
-      </c>
       <c r="G59" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="H59" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I59" s="3">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="J59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,47 +3724,50 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49800</v>
+        <v>53700</v>
       </c>
       <c r="E60" s="3">
-        <v>35500</v>
+        <v>48200</v>
       </c>
       <c r="F60" s="3">
-        <v>37700</v>
+        <v>34400</v>
       </c>
       <c r="G60" s="3">
-        <v>31300</v>
+        <v>36500</v>
       </c>
       <c r="H60" s="3">
-        <v>29200</v>
+        <v>30300</v>
       </c>
       <c r="I60" s="3">
-        <v>32400</v>
+        <v>28300</v>
       </c>
       <c r="J60" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K60" s="3">
         <v>32500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>31300</v>
       </c>
       <c r="M60" s="3">
         <v>31300</v>
       </c>
       <c r="N60" s="3">
+        <v>31300</v>
+      </c>
+      <c r="O60" s="3">
         <v>32800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,47 +3789,50 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="E61" s="3">
-        <v>4300</v>
+        <v>6800</v>
       </c>
       <c r="F61" s="3">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="G61" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H61" s="3">
-        <v>5700</v>
+        <v>4500</v>
       </c>
       <c r="I61" s="3">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="J61" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K61" s="3">
         <v>6900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>315200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>329400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3711,8 +3854,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3734,8 +3880,8 @@
       <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>1100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3752,8 +3898,8 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,47 +4114,50 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58500</v>
+        <v>59100</v>
       </c>
       <c r="E66" s="3">
-        <v>41600</v>
+        <v>56700</v>
       </c>
       <c r="F66" s="3">
-        <v>44400</v>
+        <v>40300</v>
       </c>
       <c r="G66" s="3">
-        <v>38100</v>
+        <v>43000</v>
       </c>
       <c r="H66" s="3">
-        <v>37200</v>
+        <v>37000</v>
       </c>
       <c r="I66" s="3">
-        <v>41200</v>
+        <v>36100</v>
       </c>
       <c r="J66" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K66" s="3">
         <v>39400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>346600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>362100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,47 +4464,50 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-828100</v>
+        <v>-852700</v>
       </c>
       <c r="E72" s="3">
-        <v>-806700</v>
+        <v>-802600</v>
       </c>
       <c r="F72" s="3">
-        <v>-782600</v>
+        <v>-781900</v>
       </c>
       <c r="G72" s="3">
-        <v>-756100</v>
+        <v>-758600</v>
       </c>
       <c r="H72" s="3">
-        <v>-738500</v>
+        <v>-732800</v>
       </c>
       <c r="I72" s="3">
-        <v>-721300</v>
+        <v>-715700</v>
       </c>
       <c r="J72" s="3">
+        <v>-699100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-705800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-704100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-692500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-261500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-273300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,47 +4724,50 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>126800</v>
+        <v>75200</v>
       </c>
       <c r="E76" s="3">
-        <v>147300</v>
+        <v>122900</v>
       </c>
       <c r="F76" s="3">
-        <v>171400</v>
+        <v>142800</v>
       </c>
       <c r="G76" s="3">
-        <v>196700</v>
+        <v>166100</v>
       </c>
       <c r="H76" s="3">
-        <v>211200</v>
+        <v>190600</v>
       </c>
       <c r="I76" s="3">
-        <v>226600</v>
+        <v>204700</v>
       </c>
       <c r="J76" s="3">
+        <v>219600</v>
+      </c>
+      <c r="K76" s="3">
         <v>240600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>268100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>288200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-262100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-273800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,56 +4924,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33400</v>
+        <v>-111400</v>
       </c>
       <c r="E81" s="3">
-        <v>-24800</v>
+        <v>-32400</v>
       </c>
       <c r="F81" s="3">
-        <v>-23100</v>
+        <v>-24000</v>
       </c>
       <c r="G81" s="3">
-        <v>-18300</v>
+        <v>-22400</v>
       </c>
       <c r="H81" s="3">
-        <v>-13100</v>
+        <v>-17800</v>
       </c>
       <c r="I81" s="3">
-        <v>-16000</v>
+        <v>-12700</v>
       </c>
       <c r="J81" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-417400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-83300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,8 +5404,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5237,8 +5454,8 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,8 +5496,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5323,8 +5544,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,8 +5689,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5509,8 +5739,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,8 +6039,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5843,8 +6089,8 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5905,8 +6154,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5920,8 +6169,11 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5967,8 +6219,8 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GTH_QTR_FIN.xlsx
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>89700</v>
+        <v>89800</v>
       </c>
       <c r="E8" s="3">
         <v>19000</v>
@@ -770,10 +770,10 @@
         <v>15200</v>
       </c>
       <c r="G8" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="H8" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="I8" s="3">
         <v>19400</v>
@@ -826,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>50900</v>
+        <v>51000</v>
       </c>
       <c r="E9" s="3">
         <v>11300</v>
@@ -841,7 +841,7 @@
         <v>6500</v>
       </c>
       <c r="I9" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="J9" s="3">
         <v>5200</v>
@@ -891,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="E10" s="3">
         <v>7700</v>
@@ -900,7 +900,7 @@
         <v>8500</v>
       </c>
       <c r="G10" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="H10" s="3">
         <v>14500</v>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40000</v>
+        <v>40100</v>
       </c>
       <c r="E12" s="3">
         <v>8500</v>
@@ -996,7 +996,7 @@
         <v>8600</v>
       </c>
       <c r="I12" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J12" s="3">
         <v>6900</v>
@@ -1263,25 +1263,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>186400</v>
+        <v>186800</v>
       </c>
       <c r="E17" s="3">
-        <v>42400</v>
+        <v>42500</v>
       </c>
       <c r="F17" s="3">
-        <v>40000</v>
+        <v>40100</v>
       </c>
       <c r="G17" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="H17" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="I17" s="3">
         <v>33200</v>
       </c>
       <c r="J17" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="K17" s="3">
         <v>31700</v>
@@ -1328,16 +1328,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-96700</v>
+        <v>-96900</v>
       </c>
       <c r="E18" s="3">
-        <v>-23400</v>
+        <v>-23500</v>
       </c>
       <c r="F18" s="3">
         <v>-24800</v>
       </c>
       <c r="G18" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="H18" s="3">
         <v>-17200</v>
@@ -1613,10 +1613,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-111700</v>
+        <v>-111900</v>
       </c>
       <c r="E23" s="3">
-        <v>-32500</v>
+        <v>-32600</v>
       </c>
       <c r="F23" s="3">
         <v>-24100</v>
@@ -1625,13 +1625,13 @@
         <v>-22800</v>
       </c>
       <c r="H23" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="I23" s="3">
         <v>-12700</v>
       </c>
       <c r="J23" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="K23" s="3">
         <v>-10400</v>
@@ -1808,10 +1808,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-111700</v>
+        <v>-111900</v>
       </c>
       <c r="E26" s="3">
-        <v>-32500</v>
+        <v>-32600</v>
       </c>
       <c r="F26" s="3">
         <v>-24100</v>
@@ -1820,13 +1820,13 @@
         <v>-22800</v>
       </c>
       <c r="H26" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="I26" s="3">
         <v>-12700</v>
       </c>
       <c r="J26" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="K26" s="3">
         <v>-10400</v>
@@ -1873,16 +1873,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-111400</v>
+        <v>-111600</v>
       </c>
       <c r="E27" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="F27" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="G27" s="3">
-        <v>-22400</v>
+        <v>-22500</v>
       </c>
       <c r="H27" s="3">
         <v>-17800</v>
@@ -1891,7 +1891,7 @@
         <v>-12700</v>
       </c>
       <c r="J27" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="K27" s="3">
         <v>-10400</v>
@@ -2263,16 +2263,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-111400</v>
+        <v>-111600</v>
       </c>
       <c r="E33" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="F33" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="G33" s="3">
-        <v>-22400</v>
+        <v>-22500</v>
       </c>
       <c r="H33" s="3">
         <v>-17800</v>
@@ -2281,7 +2281,7 @@
         <v>-12700</v>
       </c>
       <c r="J33" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="K33" s="3">
         <v>-10400</v>
@@ -2393,16 +2393,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-111400</v>
+        <v>-111600</v>
       </c>
       <c r="E35" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="F35" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="G35" s="3">
-        <v>-22400</v>
+        <v>-22500</v>
       </c>
       <c r="H35" s="3">
         <v>-17800</v>
@@ -2411,7 +2411,7 @@
         <v>-12700</v>
       </c>
       <c r="J35" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="K35" s="3">
         <v>-10400</v>
@@ -2581,22 +2581,22 @@
         <v>24300</v>
       </c>
       <c r="E41" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="F41" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="G41" s="3">
-        <v>88000</v>
+        <v>88200</v>
       </c>
       <c r="H41" s="3">
-        <v>112300</v>
+        <v>112600</v>
       </c>
       <c r="I41" s="3">
-        <v>147000</v>
+        <v>147300</v>
       </c>
       <c r="J41" s="3">
-        <v>147300</v>
+        <v>147600</v>
       </c>
       <c r="K41" s="3">
         <v>195600</v>
@@ -2649,19 +2649,19 @@
         <v>20000</v>
       </c>
       <c r="F42" s="3">
-        <v>33000</v>
+        <v>33100</v>
       </c>
       <c r="G42" s="3">
         <v>20900</v>
       </c>
       <c r="H42" s="3">
-        <v>25800</v>
+        <v>25900</v>
       </c>
       <c r="I42" s="3">
         <v>19600</v>
       </c>
       <c r="J42" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="K42" s="3">
         <v>19900</v>
@@ -2711,19 +2711,19 @@
         <v>44600</v>
       </c>
       <c r="E43" s="3">
-        <v>59500</v>
+        <v>59700</v>
       </c>
       <c r="F43" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="G43" s="3">
-        <v>53500</v>
+        <v>53600</v>
       </c>
       <c r="H43" s="3">
-        <v>50400</v>
+        <v>50500</v>
       </c>
       <c r="I43" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="J43" s="3">
         <v>30900</v>
@@ -2773,7 +2773,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E44" s="3">
         <v>7600</v>
@@ -2785,10 +2785,10 @@
         <v>4900</v>
       </c>
       <c r="H44" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I44" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J44" s="3">
         <v>3600</v>
@@ -2903,25 +2903,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>97700</v>
+        <v>97900</v>
       </c>
       <c r="E46" s="3">
-        <v>136400</v>
+        <v>136700</v>
       </c>
       <c r="F46" s="3">
-        <v>143900</v>
+        <v>144200</v>
       </c>
       <c r="G46" s="3">
-        <v>171800</v>
+        <v>172200</v>
       </c>
       <c r="H46" s="3">
-        <v>198400</v>
+        <v>198800</v>
       </c>
       <c r="I46" s="3">
-        <v>212200</v>
+        <v>212700</v>
       </c>
       <c r="J46" s="3">
-        <v>231000</v>
+        <v>231500</v>
       </c>
       <c r="K46" s="3">
         <v>253900</v>
@@ -3039,7 +3039,7 @@
         <v>28300</v>
       </c>
       <c r="F48" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="G48" s="3">
         <v>22400</v>
@@ -3048,7 +3048,7 @@
         <v>18800</v>
       </c>
       <c r="I48" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="J48" s="3">
         <v>18500</v>
@@ -3101,7 +3101,7 @@
         <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F49" s="3">
         <v>3400</v>
@@ -3423,25 +3423,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>134400</v>
+        <v>134700</v>
       </c>
       <c r="E54" s="3">
-        <v>179600</v>
+        <v>180000</v>
       </c>
       <c r="F54" s="3">
-        <v>183100</v>
+        <v>183500</v>
       </c>
       <c r="G54" s="3">
-        <v>209100</v>
+        <v>209600</v>
       </c>
       <c r="H54" s="3">
-        <v>227600</v>
+        <v>228100</v>
       </c>
       <c r="I54" s="3">
-        <v>240800</v>
+        <v>241300</v>
       </c>
       <c r="J54" s="3">
-        <v>259600</v>
+        <v>260100</v>
       </c>
       <c r="K54" s="3">
         <v>280000</v>
@@ -3538,7 +3538,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34300</v>
+        <v>34400</v>
       </c>
       <c r="E57" s="3">
         <v>29100</v>
@@ -3547,16 +3547,16 @@
         <v>25900</v>
       </c>
       <c r="G57" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="H57" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="I57" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="J57" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="K57" s="3">
         <v>20600</v>
@@ -3606,7 +3606,7 @@
         <v>18100</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="F58" s="3">
         <v>7300</v>
@@ -3677,7 +3677,7 @@
         <v>1200</v>
       </c>
       <c r="G59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H59" s="3">
         <v>2000</v>
@@ -3686,7 +3686,7 @@
         <v>2000</v>
       </c>
       <c r="J59" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
@@ -3733,25 +3733,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53700</v>
+        <v>53800</v>
       </c>
       <c r="E60" s="3">
-        <v>48200</v>
+        <v>48300</v>
       </c>
       <c r="F60" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="G60" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="H60" s="3">
-        <v>30300</v>
+        <v>30400</v>
       </c>
       <c r="I60" s="3">
-        <v>28300</v>
+        <v>28400</v>
       </c>
       <c r="J60" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="K60" s="3">
         <v>32500</v>
@@ -4123,25 +4123,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59100</v>
+        <v>59300</v>
       </c>
       <c r="E66" s="3">
-        <v>56700</v>
+        <v>56800</v>
       </c>
       <c r="F66" s="3">
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="G66" s="3">
-        <v>43000</v>
+        <v>43100</v>
       </c>
       <c r="H66" s="3">
         <v>37000</v>
       </c>
       <c r="I66" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="J66" s="3">
-        <v>40000</v>
+        <v>40100</v>
       </c>
       <c r="K66" s="3">
         <v>39400</v>
@@ -4473,25 +4473,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-852700</v>
+        <v>-854600</v>
       </c>
       <c r="E72" s="3">
-        <v>-802600</v>
+        <v>-804400</v>
       </c>
       <c r="F72" s="3">
-        <v>-781900</v>
+        <v>-783600</v>
       </c>
       <c r="G72" s="3">
-        <v>-758600</v>
+        <v>-760200</v>
       </c>
       <c r="H72" s="3">
-        <v>-732800</v>
+        <v>-734400</v>
       </c>
       <c r="I72" s="3">
-        <v>-715700</v>
+        <v>-717300</v>
       </c>
       <c r="J72" s="3">
-        <v>-699100</v>
+        <v>-700700</v>
       </c>
       <c r="K72" s="3">
         <v>-705800</v>
@@ -4733,25 +4733,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75200</v>
+        <v>75400</v>
       </c>
       <c r="E76" s="3">
-        <v>122900</v>
+        <v>123200</v>
       </c>
       <c r="F76" s="3">
-        <v>142800</v>
+        <v>143100</v>
       </c>
       <c r="G76" s="3">
-        <v>166100</v>
+        <v>166500</v>
       </c>
       <c r="H76" s="3">
-        <v>190600</v>
+        <v>191100</v>
       </c>
       <c r="I76" s="3">
-        <v>204700</v>
+        <v>205100</v>
       </c>
       <c r="J76" s="3">
-        <v>219600</v>
+        <v>220100</v>
       </c>
       <c r="K76" s="3">
         <v>240600</v>
@@ -4933,16 +4933,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-111400</v>
+        <v>-111600</v>
       </c>
       <c r="E81" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="F81" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="G81" s="3">
-        <v>-22400</v>
+        <v>-22500</v>
       </c>
       <c r="H81" s="3">
         <v>-17800</v>
@@ -4951,7 +4951,7 @@
         <v>-12700</v>
       </c>
       <c r="J81" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="K81" s="3">
         <v>-10400</v>
